--- a/NRI_STLF_Data/LoadData/L_system94.xlsx
+++ b/NRI_STLF_Data/LoadData/L_system94.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\karami\Works\LoadData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
@@ -16,14 +21,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +62,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -57,6 +79,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -105,7 +130,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -140,7 +165,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,8 +376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
-      <selection activeCell="K368" sqref="K368"/>
+    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
+      <selection activeCell="F328" sqref="F328:AC365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30370,77 +30395,77 @@
       <c r="E328">
         <v>2</v>
       </c>
-      <c r="F328">
-        <v>25337</v>
-      </c>
-      <c r="G328">
-        <v>24030</v>
-      </c>
-      <c r="H328">
-        <v>23318</v>
-      </c>
-      <c r="I328">
-        <v>23030</v>
-      </c>
-      <c r="J328">
-        <v>23015</v>
-      </c>
-      <c r="K328">
-        <v>23078</v>
-      </c>
-      <c r="L328">
-        <v>23178</v>
-      </c>
-      <c r="M328">
-        <v>22890</v>
-      </c>
-      <c r="N328">
-        <v>24128</v>
-      </c>
-      <c r="O328">
-        <v>25353</v>
-      </c>
-      <c r="P328">
-        <v>26346</v>
-      </c>
-      <c r="Q328">
-        <v>27103</v>
-      </c>
-      <c r="R328">
-        <v>27159</v>
-      </c>
-      <c r="S328">
-        <v>26708</v>
-      </c>
-      <c r="T328">
-        <v>26352</v>
-      </c>
-      <c r="U328">
-        <v>26165</v>
-      </c>
-      <c r="V328">
-        <v>26281</v>
-      </c>
-      <c r="W328">
-        <v>27835</v>
-      </c>
-      <c r="X328">
-        <v>30359</v>
-      </c>
-      <c r="Y328">
-        <v>30189</v>
-      </c>
-      <c r="Z328">
-        <v>29654</v>
-      </c>
-      <c r="AA328">
-        <v>29217</v>
-      </c>
-      <c r="AB328">
-        <v>28225</v>
-      </c>
-      <c r="AC328">
-        <v>26949</v>
+      <c r="F328" s="1">
+        <v>25337.078391999996</v>
+      </c>
+      <c r="G328" s="1">
+        <v>24030.178228000001</v>
+      </c>
+      <c r="H328" s="1">
+        <v>23318.086162</v>
+      </c>
+      <c r="I328" s="1">
+        <v>23029.5</v>
+      </c>
+      <c r="J328" s="1">
+        <v>23015.451840000005</v>
+      </c>
+      <c r="K328" s="1">
+        <v>23077.582424</v>
+      </c>
+      <c r="L328" s="1">
+        <v>23178.144630000006</v>
+      </c>
+      <c r="M328" s="1">
+        <v>22890.020133000002</v>
+      </c>
+      <c r="N328" s="1">
+        <v>24127.927703000001</v>
+      </c>
+      <c r="O328" s="1">
+        <v>25352.6</v>
+      </c>
+      <c r="P328" s="1">
+        <v>26345.529370999997</v>
+      </c>
+      <c r="Q328" s="1">
+        <v>27102.826889999997</v>
+      </c>
+      <c r="R328" s="1">
+        <v>27158.783388</v>
+      </c>
+      <c r="S328" s="1">
+        <v>26707.730299999996</v>
+      </c>
+      <c r="T328" s="1">
+        <v>26352.353442000003</v>
+      </c>
+      <c r="U328" s="1">
+        <v>26164.549271000004</v>
+      </c>
+      <c r="V328" s="1">
+        <v>26280.966043999993</v>
+      </c>
+      <c r="W328" s="1">
+        <v>27835.196806</v>
+      </c>
+      <c r="X328" s="1">
+        <v>30359.009005000004</v>
+      </c>
+      <c r="Y328" s="1">
+        <v>30188.695909000002</v>
+      </c>
+      <c r="Z328" s="1">
+        <v>29653.915787999995</v>
+      </c>
+      <c r="AA328" s="1">
+        <v>29216.970944000001</v>
+      </c>
+      <c r="AB328" s="1">
+        <v>28225.180919999995</v>
+      </c>
+      <c r="AC328" s="1">
+        <v>26948.784173999997</v>
       </c>
     </row>
     <row r="329" spans="1:29" x14ac:dyDescent="0.2">
@@ -30459,77 +30484,77 @@
       <c r="E329">
         <v>1</v>
       </c>
-      <c r="F329">
-        <v>25291</v>
-      </c>
-      <c r="G329">
-        <v>23758</v>
-      </c>
-      <c r="H329">
-        <v>22743</v>
-      </c>
-      <c r="I329">
-        <v>22550</v>
-      </c>
-      <c r="J329">
-        <v>22230</v>
-      </c>
-      <c r="K329">
-        <v>22415</v>
-      </c>
-      <c r="L329">
-        <v>22378</v>
-      </c>
-      <c r="M329">
-        <v>22074</v>
-      </c>
-      <c r="N329">
-        <v>23232</v>
-      </c>
-      <c r="O329">
-        <v>24115</v>
-      </c>
-      <c r="P329">
-        <v>25632</v>
-      </c>
-      <c r="Q329">
-        <v>25911</v>
-      </c>
-      <c r="R329">
-        <v>25837</v>
-      </c>
-      <c r="S329">
-        <v>25089</v>
-      </c>
-      <c r="T329">
-        <v>24754</v>
-      </c>
-      <c r="U329">
-        <v>24595</v>
-      </c>
-      <c r="V329">
-        <v>24666</v>
-      </c>
-      <c r="W329">
-        <v>26252</v>
-      </c>
-      <c r="X329">
-        <v>29420</v>
-      </c>
-      <c r="Y329">
-        <v>29676</v>
-      </c>
-      <c r="Z329">
-        <v>29207</v>
-      </c>
-      <c r="AA329">
-        <v>28844</v>
-      </c>
-      <c r="AB329">
-        <v>27823</v>
-      </c>
-      <c r="AC329">
-        <v>26396</v>
+      <c r="F329" s="2">
+        <v>25290.843475000005</v>
+      </c>
+      <c r="G329" s="2">
+        <v>23757.842257999993</v>
+      </c>
+      <c r="H329" s="2">
+        <v>22743.149659999999</v>
+      </c>
+      <c r="I329" s="2">
+        <v>22549.593839000005</v>
+      </c>
+      <c r="J329" s="2">
+        <v>22230.460645000003</v>
+      </c>
+      <c r="K329" s="2">
+        <v>22414.5</v>
+      </c>
+      <c r="L329" s="2">
+        <v>22378.3</v>
+      </c>
+      <c r="M329" s="2">
+        <v>22074.192734000004</v>
+      </c>
+      <c r="N329" s="2">
+        <v>23231.679491999996</v>
+      </c>
+      <c r="O329" s="2">
+        <v>24114.5</v>
+      </c>
+      <c r="P329" s="2">
+        <v>25631.565434999997</v>
+      </c>
+      <c r="Q329" s="2">
+        <v>25910.9</v>
+      </c>
+      <c r="R329" s="2">
+        <v>25837.418923999998</v>
+      </c>
+      <c r="S329" s="2">
+        <v>25088.583515999992</v>
+      </c>
+      <c r="T329" s="2">
+        <v>24753.968392999999</v>
+      </c>
+      <c r="U329" s="2">
+        <v>24595.1</v>
+      </c>
+      <c r="V329" s="2">
+        <v>24666.414567999993</v>
+      </c>
+      <c r="W329" s="2">
+        <v>26252.450214000004</v>
+      </c>
+      <c r="X329" s="2">
+        <v>29419.988150000005</v>
+      </c>
+      <c r="Y329" s="2">
+        <v>29676.026104999997</v>
+      </c>
+      <c r="Z329" s="2">
+        <v>29206.944898999998</v>
+      </c>
+      <c r="AA329" s="2">
+        <v>28844.400000000001</v>
+      </c>
+      <c r="AB329" s="2">
+        <v>27822.603232000005</v>
+      </c>
+      <c r="AC329" s="2">
+        <v>26396.331002000003</v>
       </c>
     </row>
     <row r="330" spans="1:29" x14ac:dyDescent="0.2">
@@ -30548,77 +30573,77 @@
       <c r="E330">
         <v>1</v>
       </c>
-      <c r="F330">
-        <v>24453</v>
-      </c>
-      <c r="G330">
-        <v>23095</v>
-      </c>
-      <c r="H330">
-        <v>22445</v>
-      </c>
-      <c r="I330">
-        <v>22199</v>
-      </c>
-      <c r="J330">
-        <v>22076</v>
-      </c>
-      <c r="K330">
-        <v>22583</v>
-      </c>
-      <c r="L330">
-        <v>23631</v>
-      </c>
-      <c r="M330">
-        <v>24861</v>
-      </c>
-      <c r="N330">
-        <v>27091</v>
-      </c>
-      <c r="O330">
-        <v>28329</v>
-      </c>
-      <c r="P330">
-        <v>29526</v>
-      </c>
-      <c r="Q330">
-        <v>29708</v>
-      </c>
-      <c r="R330">
-        <v>29092</v>
-      </c>
-      <c r="S330">
-        <v>28537</v>
-      </c>
-      <c r="T330">
-        <v>28261</v>
-      </c>
-      <c r="U330">
-        <v>28078</v>
-      </c>
-      <c r="V330">
-        <v>27963</v>
-      </c>
-      <c r="W330">
-        <v>29563</v>
-      </c>
-      <c r="X330">
-        <v>32255</v>
-      </c>
-      <c r="Y330">
-        <v>32288</v>
-      </c>
-      <c r="Z330">
-        <v>31554</v>
-      </c>
-      <c r="AA330">
-        <v>30865</v>
-      </c>
-      <c r="AB330">
-        <v>29343</v>
-      </c>
-      <c r="AC330">
-        <v>27362</v>
+      <c r="F330" s="2">
+        <v>24452.9</v>
+      </c>
+      <c r="G330" s="2">
+        <v>23094.672278999995</v>
+      </c>
+      <c r="H330" s="2">
+        <v>22445.282435999998</v>
+      </c>
+      <c r="I330" s="2">
+        <v>22198.6</v>
+      </c>
+      <c r="J330" s="2">
+        <v>22076.400000000001</v>
+      </c>
+      <c r="K330" s="2">
+        <v>22582.611260999995</v>
+      </c>
+      <c r="L330" s="2">
+        <v>23630.545434999996</v>
+      </c>
+      <c r="M330" s="2">
+        <v>24861.414209000006</v>
+      </c>
+      <c r="N330" s="2">
+        <v>27090.909320999996</v>
+      </c>
+      <c r="O330" s="2">
+        <v>28329.144764000004</v>
+      </c>
+      <c r="P330" s="2">
+        <v>29525.910231999998</v>
+      </c>
+      <c r="Q330" s="2">
+        <v>29707.943327999998</v>
+      </c>
+      <c r="R330" s="2">
+        <v>29091.596273999996</v>
+      </c>
+      <c r="S330" s="2">
+        <v>28537.046474999996</v>
+      </c>
+      <c r="T330" s="2">
+        <v>28260.634324000002</v>
+      </c>
+      <c r="U330" s="2">
+        <v>28078.3</v>
+      </c>
+      <c r="V330" s="2">
+        <v>27962.613045000006</v>
+      </c>
+      <c r="W330" s="2">
+        <v>29563.169530999996</v>
+      </c>
+      <c r="X330" s="2">
+        <v>32255.241787999996</v>
+      </c>
+      <c r="Y330" s="2">
+        <v>32287.724858000005</v>
+      </c>
+      <c r="Z330" s="2">
+        <v>31553.599453000003</v>
+      </c>
+      <c r="AA330" s="2">
+        <v>30865.200000000001</v>
+      </c>
+      <c r="AB330" s="2">
+        <v>29342.627624000001</v>
+      </c>
+      <c r="AC330" s="2">
+        <v>27362.466463999997</v>
       </c>
     </row>
     <row r="331" spans="1:29" x14ac:dyDescent="0.2">
@@ -30637,77 +30662,77 @@
       <c r="E331">
         <v>1</v>
       </c>
-      <c r="F331">
-        <v>25481</v>
-      </c>
-      <c r="G331">
-        <v>23891</v>
-      </c>
-      <c r="H331">
-        <v>23424</v>
-      </c>
-      <c r="I331">
-        <v>23153</v>
-      </c>
-      <c r="J331">
-        <v>22999</v>
-      </c>
-      <c r="K331">
-        <v>23460</v>
-      </c>
-      <c r="L331">
-        <v>24274</v>
-      </c>
-      <c r="M331">
-        <v>25576</v>
-      </c>
-      <c r="N331">
-        <v>27342</v>
-      </c>
-      <c r="O331">
-        <v>28704</v>
-      </c>
-      <c r="P331">
+      <c r="F331" s="2">
+        <v>25480.598264</v>
+      </c>
+      <c r="G331" s="2">
+        <v>23890.609572000001</v>
+      </c>
+      <c r="H331" s="2">
+        <v>23424.168306000003</v>
+      </c>
+      <c r="I331" s="2">
+        <v>23152.9</v>
+      </c>
+      <c r="J331" s="2">
+        <v>22999.435379000002</v>
+      </c>
+      <c r="K331" s="2">
+        <v>23460.1</v>
+      </c>
+      <c r="L331" s="2">
+        <v>24273.973416000001</v>
+      </c>
+      <c r="M331" s="2">
+        <v>25576.449355000004</v>
+      </c>
+      <c r="N331" s="2">
+        <v>27342.448236000004</v>
+      </c>
+      <c r="O331" s="2">
+        <v>28704.353310000002</v>
+      </c>
+      <c r="P331" s="2">
         <v>29335</v>
       </c>
-      <c r="Q331">
-        <v>29754</v>
-      </c>
-      <c r="R331">
-        <v>29263</v>
-      </c>
-      <c r="S331">
-        <v>28637</v>
-      </c>
-      <c r="T331">
-        <v>28550</v>
-      </c>
-      <c r="U331">
-        <v>28153</v>
-      </c>
-      <c r="V331">
-        <v>28154</v>
-      </c>
-      <c r="W331">
-        <v>29559</v>
-      </c>
-      <c r="X331">
-        <v>32351</v>
-      </c>
-      <c r="Y331">
-        <v>32376</v>
-      </c>
-      <c r="Z331">
-        <v>31790</v>
-      </c>
-      <c r="AA331">
-        <v>30798</v>
-      </c>
-      <c r="AB331">
-        <v>29219</v>
-      </c>
-      <c r="AC331">
-        <v>27437</v>
+      <c r="Q331" s="2">
+        <v>29753.517962999998</v>
+      </c>
+      <c r="R331" s="2">
+        <v>29262.821445999991</v>
+      </c>
+      <c r="S331" s="2">
+        <v>28637.487429000004</v>
+      </c>
+      <c r="T331" s="2">
+        <v>28549.599999999999</v>
+      </c>
+      <c r="U331" s="2">
+        <v>28152.934677000005</v>
+      </c>
+      <c r="V331" s="2">
+        <v>28154.353237999996</v>
+      </c>
+      <c r="W331" s="2">
+        <v>29559.105267999999</v>
+      </c>
+      <c r="X331" s="2">
+        <v>32350.592779000002</v>
+      </c>
+      <c r="Y331" s="2">
+        <v>32375.9</v>
+      </c>
+      <c r="Z331" s="2">
+        <v>31789.941151999996</v>
+      </c>
+      <c r="AA331" s="2">
+        <v>30798.253705999996</v>
+      </c>
+      <c r="AB331" s="2">
+        <v>29219.400045000002</v>
+      </c>
+      <c r="AC331" s="2">
+        <v>27436.657588999999</v>
       </c>
     </row>
     <row r="332" spans="1:29" x14ac:dyDescent="0.2">
@@ -30726,77 +30751,77 @@
       <c r="E332">
         <v>1</v>
       </c>
-      <c r="F332">
-        <v>25421</v>
-      </c>
-      <c r="G332">
-        <v>23915</v>
-      </c>
-      <c r="H332">
-        <v>23157</v>
-      </c>
-      <c r="I332">
-        <v>22926</v>
-      </c>
-      <c r="J332">
-        <v>22759</v>
-      </c>
-      <c r="K332">
-        <v>23259</v>
-      </c>
-      <c r="L332">
-        <v>24180</v>
-      </c>
-      <c r="M332">
-        <v>25334</v>
-      </c>
-      <c r="N332">
-        <v>27173</v>
-      </c>
-      <c r="O332">
-        <v>28349</v>
-      </c>
-      <c r="P332">
+      <c r="F332" s="2">
+        <v>25420.528915000003</v>
+      </c>
+      <c r="G332" s="2">
+        <v>23915.200000000001</v>
+      </c>
+      <c r="H332" s="2">
+        <v>23157.185493000001</v>
+      </c>
+      <c r="I332" s="2">
+        <v>22925.592019999996</v>
+      </c>
+      <c r="J332" s="2">
+        <v>22758.500918999998</v>
+      </c>
+      <c r="K332" s="2">
+        <v>23258.799999999999</v>
+      </c>
+      <c r="L332" s="2">
+        <v>24179.562130999999</v>
+      </c>
+      <c r="M332" s="2">
+        <v>25333.833105999995</v>
+      </c>
+      <c r="N332" s="2">
+        <v>27172.6</v>
+      </c>
+      <c r="O332" s="2">
+        <v>28348.554949999994</v>
+      </c>
+      <c r="P332" s="2">
         <v>29140</v>
       </c>
-      <c r="Q332">
-        <v>29330</v>
-      </c>
-      <c r="R332">
-        <v>28982</v>
-      </c>
-      <c r="S332">
-        <v>28342</v>
-      </c>
-      <c r="T332">
-        <v>27926</v>
-      </c>
-      <c r="U332">
-        <v>28094</v>
-      </c>
-      <c r="V332">
-        <v>28010</v>
-      </c>
-      <c r="W332">
-        <v>29270</v>
-      </c>
-      <c r="X332">
-        <v>32111</v>
-      </c>
-      <c r="Y332">
-        <v>32159</v>
-      </c>
-      <c r="Z332">
-        <v>31419</v>
-      </c>
-      <c r="AA332">
-        <v>30652</v>
-      </c>
-      <c r="AB332">
-        <v>29382</v>
-      </c>
-      <c r="AC332">
-        <v>27690</v>
+      <c r="Q332" s="2">
+        <v>29329.656861999996</v>
+      </c>
+      <c r="R332" s="2">
+        <v>28981.808371999992</v>
+      </c>
+      <c r="S332" s="2">
+        <v>28342.138134000001</v>
+      </c>
+      <c r="T332" s="2">
+        <v>27925.7</v>
+      </c>
+      <c r="U332" s="2">
+        <v>28093.920596</v>
+      </c>
+      <c r="V332" s="2">
+        <v>28010.441538000006</v>
+      </c>
+      <c r="W332" s="2">
+        <v>29270.125106000003</v>
+      </c>
+      <c r="X332" s="2">
+        <v>32110.815128000006</v>
+      </c>
+      <c r="Y332" s="2">
+        <v>32158.771401999998</v>
+      </c>
+      <c r="Z332" s="2">
+        <v>31418.810838000001</v>
+      </c>
+      <c r="AA332" s="2">
+        <v>30651.830836000001</v>
+      </c>
+      <c r="AB332" s="2">
+        <v>29381.899861999998</v>
+      </c>
+      <c r="AC332" s="2">
+        <v>27690.169121999996</v>
       </c>
     </row>
     <row r="333" spans="1:29" x14ac:dyDescent="0.2">
@@ -30815,77 +30840,77 @@
       <c r="E333">
         <v>1</v>
       </c>
-      <c r="F333">
-        <v>25624</v>
-      </c>
-      <c r="G333">
-        <v>23912</v>
-      </c>
-      <c r="H333">
-        <v>23195</v>
-      </c>
-      <c r="I333">
-        <v>23058</v>
-      </c>
-      <c r="J333">
-        <v>22988</v>
-      </c>
-      <c r="K333">
-        <v>23464</v>
-      </c>
-      <c r="L333">
-        <v>24389</v>
-      </c>
-      <c r="M333">
-        <v>25217</v>
-      </c>
-      <c r="N333">
-        <v>27109</v>
-      </c>
-      <c r="O333">
-        <v>28541</v>
-      </c>
-      <c r="P333">
-        <v>28895</v>
-      </c>
-      <c r="Q333">
-        <v>29297</v>
-      </c>
-      <c r="R333">
-        <v>28930</v>
-      </c>
-      <c r="S333">
-        <v>27710</v>
-      </c>
-      <c r="T333">
-        <v>27856</v>
-      </c>
-      <c r="U333">
-        <v>27789</v>
-      </c>
-      <c r="V333">
-        <v>27818</v>
-      </c>
-      <c r="W333">
-        <v>29323</v>
-      </c>
-      <c r="X333">
-        <v>31628</v>
-      </c>
-      <c r="Y333">
-        <v>31972</v>
-      </c>
-      <c r="Z333">
-        <v>31169</v>
-      </c>
-      <c r="AA333">
-        <v>30326</v>
-      </c>
-      <c r="AB333">
-        <v>29139</v>
-      </c>
-      <c r="AC333">
-        <v>27390</v>
+      <c r="F333" s="2">
+        <v>25623.836999999996</v>
+      </c>
+      <c r="G333" s="2">
+        <v>23911.598862000003</v>
+      </c>
+      <c r="H333" s="2">
+        <v>23194.799999999999</v>
+      </c>
+      <c r="I333" s="2">
+        <v>23058.456359999996</v>
+      </c>
+      <c r="J333" s="2">
+        <v>22987.617708999998</v>
+      </c>
+      <c r="K333" s="2">
+        <v>23463.942341999995</v>
+      </c>
+      <c r="L333" s="2">
+        <v>24389.494419999999</v>
+      </c>
+      <c r="M333" s="2">
+        <v>25217.350316999997</v>
+      </c>
+      <c r="N333" s="2">
+        <v>27109.4</v>
+      </c>
+      <c r="O333" s="2">
+        <v>28540.836746000004</v>
+      </c>
+      <c r="P333" s="2">
+        <v>28894.797213999998</v>
+      </c>
+      <c r="Q333" s="2">
+        <v>29297.286255999996</v>
+      </c>
+      <c r="R333" s="2">
+        <v>28929.662848</v>
+      </c>
+      <c r="S333" s="2">
+        <v>27710.406525999995</v>
+      </c>
+      <c r="T333" s="2">
+        <v>27856.357503999996</v>
+      </c>
+      <c r="U333" s="2">
+        <v>27789.026251999992</v>
+      </c>
+      <c r="V333" s="2">
+        <v>27818.079988999998</v>
+      </c>
+      <c r="W333" s="2">
+        <v>29322.737773000004</v>
+      </c>
+      <c r="X333" s="2">
+        <v>31628.246484000003</v>
+      </c>
+      <c r="Y333" s="2">
+        <v>31971.686120000002</v>
+      </c>
+      <c r="Z333" s="2">
+        <v>31169.475999999995</v>
+      </c>
+      <c r="AA333" s="2">
+        <v>30325.526090000003</v>
+      </c>
+      <c r="AB333" s="2">
+        <v>29138.949091999995</v>
+      </c>
+      <c r="AC333" s="2">
+        <v>27389.599999999999</v>
       </c>
     </row>
     <row r="334" spans="1:29" x14ac:dyDescent="0.2">
@@ -30904,77 +30929,77 @@
       <c r="E334">
         <v>1</v>
       </c>
-      <c r="F334">
-        <v>25398</v>
-      </c>
-      <c r="G334">
-        <v>24302</v>
-      </c>
-      <c r="H334">
-        <v>23520</v>
-      </c>
-      <c r="I334">
-        <v>23323</v>
-      </c>
-      <c r="J334">
-        <v>23098</v>
-      </c>
-      <c r="K334">
-        <v>23640</v>
-      </c>
-      <c r="L334">
-        <v>24432</v>
-      </c>
-      <c r="M334">
-        <v>25894</v>
-      </c>
-      <c r="N334">
+      <c r="F334" s="2">
+        <v>25398.040390000002</v>
+      </c>
+      <c r="G334" s="2">
+        <v>24302.286357999998</v>
+      </c>
+      <c r="H334" s="2">
+        <v>23520.498425000002</v>
+      </c>
+      <c r="I334" s="2">
+        <v>23322.886365999999</v>
+      </c>
+      <c r="J334" s="2">
+        <v>23098.2</v>
+      </c>
+      <c r="K334" s="2">
+        <v>23639.775719999998</v>
+      </c>
+      <c r="L334" s="2">
+        <v>24432.353553999994</v>
+      </c>
+      <c r="M334" s="2">
+        <v>25894.487073000004</v>
+      </c>
+      <c r="N334" s="2">
         <v>27340</v>
       </c>
-      <c r="O334">
-        <v>28321</v>
-      </c>
-      <c r="P334">
-        <v>29121</v>
-      </c>
-      <c r="Q334">
-        <v>29537</v>
-      </c>
-      <c r="R334">
-        <v>28894</v>
-      </c>
-      <c r="S334">
-        <v>28212</v>
-      </c>
-      <c r="T334">
-        <v>28080</v>
-      </c>
-      <c r="U334">
-        <v>27695</v>
-      </c>
-      <c r="V334">
-        <v>27657</v>
-      </c>
-      <c r="W334">
-        <v>28902</v>
-      </c>
-      <c r="X334">
-        <v>31562</v>
-      </c>
-      <c r="Y334">
-        <v>31389</v>
-      </c>
-      <c r="Z334">
-        <v>30989</v>
-      </c>
-      <c r="AA334">
-        <v>30221</v>
-      </c>
-      <c r="AB334">
-        <v>28942</v>
-      </c>
-      <c r="AC334">
-        <v>27223</v>
+      <c r="O334" s="2">
+        <v>28321.282795999996</v>
+      </c>
+      <c r="P334" s="2">
+        <v>29120.577244</v>
+      </c>
+      <c r="Q334" s="2">
+        <v>29536.539846</v>
+      </c>
+      <c r="R334" s="2">
+        <v>28894.024400999999</v>
+      </c>
+      <c r="S334" s="2">
+        <v>28211.594791999993</v>
+      </c>
+      <c r="T334" s="2">
+        <v>28079.813404999997</v>
+      </c>
+      <c r="U334" s="2">
+        <v>27694.868410000003</v>
+      </c>
+      <c r="V334" s="2">
+        <v>27657.087688000003</v>
+      </c>
+      <c r="W334" s="2">
+        <v>28902.318744</v>
+      </c>
+      <c r="X334" s="2">
+        <v>31562.281328000001</v>
+      </c>
+      <c r="Y334" s="2">
+        <v>31388.950579999993</v>
+      </c>
+      <c r="Z334" s="2">
+        <v>30989.313695999997</v>
+      </c>
+      <c r="AA334" s="2">
+        <v>30221.179334</v>
+      </c>
+      <c r="AB334" s="2">
+        <v>28941.551573000001</v>
+      </c>
+      <c r="AC334" s="2">
+        <v>27222.804897999999</v>
       </c>
     </row>
     <row r="335" spans="1:29" x14ac:dyDescent="0.2">
@@ -30993,77 +31018,77 @@
       <c r="E335">
         <v>1</v>
       </c>
-      <c r="F335">
-        <v>25468</v>
-      </c>
-      <c r="G335">
-        <v>23853</v>
-      </c>
-      <c r="H335">
-        <v>23384</v>
-      </c>
-      <c r="I335">
-        <v>22903</v>
-      </c>
-      <c r="J335">
-        <v>22699</v>
-      </c>
-      <c r="K335">
-        <v>23039</v>
-      </c>
-      <c r="L335">
-        <v>23362</v>
-      </c>
-      <c r="M335">
-        <v>24449</v>
-      </c>
-      <c r="N335">
-        <v>26309</v>
-      </c>
-      <c r="O335">
-        <v>28031</v>
-      </c>
-      <c r="P335">
-        <v>28751</v>
-      </c>
-      <c r="Q335">
-        <v>29106</v>
-      </c>
-      <c r="R335">
-        <v>28559</v>
-      </c>
-      <c r="S335">
-        <v>27668</v>
-      </c>
-      <c r="T335">
-        <v>27186</v>
-      </c>
-      <c r="U335">
-        <v>27199</v>
-      </c>
-      <c r="V335">
-        <v>27084</v>
-      </c>
-      <c r="W335">
-        <v>27912</v>
-      </c>
-      <c r="X335">
-        <v>30622</v>
-      </c>
-      <c r="Y335">
-        <v>30551</v>
-      </c>
-      <c r="Z335">
-        <v>29955</v>
-      </c>
-      <c r="AA335">
-        <v>28990</v>
-      </c>
-      <c r="AB335">
-        <v>27958</v>
-      </c>
-      <c r="AC335">
-        <v>26837</v>
+      <c r="F335" s="2">
+        <v>25467.885152999996</v>
+      </c>
+      <c r="G335" s="2">
+        <v>23853.1</v>
+      </c>
+      <c r="H335" s="2">
+        <v>23384.022899000003</v>
+      </c>
+      <c r="I335" s="2">
+        <v>22903.214867999999</v>
+      </c>
+      <c r="J335" s="2">
+        <v>22698.5</v>
+      </c>
+      <c r="K335" s="2">
+        <v>23038.775606000003</v>
+      </c>
+      <c r="L335" s="2">
+        <v>23361.901518999999</v>
+      </c>
+      <c r="M335" s="2">
+        <v>24448.562410999999</v>
+      </c>
+      <c r="N335" s="2">
+        <v>26309.408252000001</v>
+      </c>
+      <c r="O335" s="2">
+        <v>28031.4</v>
+      </c>
+      <c r="P335" s="2">
+        <v>28751.443583999993</v>
+      </c>
+      <c r="Q335" s="2">
+        <v>29106.498816999996</v>
+      </c>
+      <c r="R335" s="2">
+        <v>28558.740341999994</v>
+      </c>
+      <c r="S335" s="2">
+        <v>27667.903240999996</v>
+      </c>
+      <c r="T335" s="2">
+        <v>27186.357974999999</v>
+      </c>
+      <c r="U335" s="2">
+        <v>27198.6</v>
+      </c>
+      <c r="V335" s="2">
+        <v>27083.605597999998</v>
+      </c>
+      <c r="W335" s="2">
+        <v>27911.700995999996</v>
+      </c>
+      <c r="X335" s="2">
+        <v>30621.833837999999</v>
+      </c>
+      <c r="Y335" s="2">
+        <v>30550.549480000001</v>
+      </c>
+      <c r="Z335" s="2">
+        <v>29954.919675000005</v>
+      </c>
+      <c r="AA335" s="2">
+        <v>28990.2</v>
+      </c>
+      <c r="AB335" s="2">
+        <v>27958.158469999998</v>
+      </c>
+      <c r="AC335" s="2">
+        <v>26837.298005999997</v>
       </c>
     </row>
     <row r="336" spans="1:29" x14ac:dyDescent="0.2">
@@ -31082,77 +31107,77 @@
       <c r="E336">
         <v>1</v>
       </c>
-      <c r="F336">
-        <v>25168</v>
-      </c>
-      <c r="G336">
-        <v>23795</v>
-      </c>
-      <c r="H336">
-        <v>22917</v>
-      </c>
-      <c r="I336">
-        <v>22425</v>
-      </c>
-      <c r="J336">
-        <v>22543</v>
-      </c>
-      <c r="K336">
-        <v>22438</v>
-      </c>
-      <c r="L336">
-        <v>22424</v>
-      </c>
-      <c r="M336">
-        <v>22225</v>
-      </c>
-      <c r="N336">
-        <v>23050</v>
-      </c>
-      <c r="O336">
-        <v>24276</v>
-      </c>
-      <c r="P336">
-        <v>25544</v>
-      </c>
-      <c r="Q336">
-        <v>26015</v>
-      </c>
-      <c r="R336">
-        <v>26024</v>
-      </c>
-      <c r="S336">
-        <v>25486</v>
-      </c>
-      <c r="T336">
-        <v>24864</v>
-      </c>
-      <c r="U336">
-        <v>24668</v>
-      </c>
-      <c r="V336">
-        <v>24900</v>
-      </c>
-      <c r="W336">
-        <v>26117</v>
-      </c>
-      <c r="X336">
-        <v>29288</v>
-      </c>
-      <c r="Y336">
-        <v>29737</v>
-      </c>
-      <c r="Z336">
-        <v>29328</v>
-      </c>
-      <c r="AA336">
-        <v>28814</v>
-      </c>
-      <c r="AB336">
-        <v>27458</v>
-      </c>
-      <c r="AC336">
-        <v>26069</v>
+      <c r="F336" s="2">
+        <v>25167.502935999997</v>
+      </c>
+      <c r="G336" s="2">
+        <v>23794.638416999998</v>
+      </c>
+      <c r="H336" s="2">
+        <v>22917.381906999999</v>
+      </c>
+      <c r="I336" s="2">
+        <v>22424.737576999996</v>
+      </c>
+      <c r="J336" s="2">
+        <v>22542.557036999999</v>
+      </c>
+      <c r="K336" s="2">
+        <v>22438.150704000003</v>
+      </c>
+      <c r="L336" s="2">
+        <v>22424.403753999995</v>
+      </c>
+      <c r="M336" s="2">
+        <v>22224.746142000004</v>
+      </c>
+      <c r="N336" s="2">
+        <v>23050.338329000002</v>
+      </c>
+      <c r="O336" s="2">
+        <v>24276.136428000005</v>
+      </c>
+      <c r="P336" s="2">
+        <v>25544.465675000003</v>
+      </c>
+      <c r="Q336" s="2">
+        <v>26014.637975999998</v>
+      </c>
+      <c r="R336" s="2">
+        <v>26024.122079999997</v>
+      </c>
+      <c r="S336" s="2">
+        <v>25485.545715000004</v>
+      </c>
+      <c r="T336" s="2">
+        <v>24863.700245999997</v>
+      </c>
+      <c r="U336" s="2">
+        <v>24667.813139999995</v>
+      </c>
+      <c r="V336" s="2">
+        <v>24899.738401000002</v>
+      </c>
+      <c r="W336" s="2">
+        <v>26116.973547000005</v>
+      </c>
+      <c r="X336" s="2">
+        <v>29288.195537999993</v>
+      </c>
+      <c r="Y336" s="2">
+        <v>29736.526633000001</v>
+      </c>
+      <c r="Z336" s="2">
+        <v>29327.735223000003</v>
+      </c>
+      <c r="AA336" s="2">
+        <v>28814.400000000001</v>
+      </c>
+      <c r="AB336" s="2">
+        <v>27458.170828000002</v>
+      </c>
+      <c r="AC336" s="2">
+        <v>26069.110304000002</v>
       </c>
     </row>
     <row r="337" spans="1:29" x14ac:dyDescent="0.2">
@@ -31171,77 +31196,77 @@
       <c r="E337">
         <v>1</v>
       </c>
-      <c r="F337">
-        <v>23969</v>
-      </c>
-      <c r="G337">
-        <v>23059</v>
-      </c>
-      <c r="H337">
-        <v>22025</v>
-      </c>
-      <c r="I337">
-        <v>21943</v>
-      </c>
-      <c r="J337">
-        <v>21877</v>
-      </c>
-      <c r="K337">
-        <v>22279</v>
-      </c>
-      <c r="L337">
-        <v>23297</v>
-      </c>
-      <c r="M337">
-        <v>24534</v>
-      </c>
-      <c r="N337">
+      <c r="F337" s="2">
+        <v>23969.270819999998</v>
+      </c>
+      <c r="G337" s="2">
+        <v>23058.86376</v>
+      </c>
+      <c r="H337" s="2">
+        <v>22025.361334000001</v>
+      </c>
+      <c r="I337" s="2">
+        <v>21943.403154000003</v>
+      </c>
+      <c r="J337" s="2">
+        <v>21877.321166999998</v>
+      </c>
+      <c r="K337" s="2">
+        <v>22279.456730999995</v>
+      </c>
+      <c r="L337" s="2">
+        <v>23296.912512000003</v>
+      </c>
+      <c r="M337" s="2">
+        <v>24533.705811999997</v>
+      </c>
+      <c r="N337" s="2">
         <v>26646</v>
       </c>
-      <c r="O337">
-        <v>27992</v>
-      </c>
-      <c r="P337">
-        <v>29081</v>
-      </c>
-      <c r="Q337">
-        <v>29589</v>
-      </c>
-      <c r="R337">
-        <v>28954</v>
-      </c>
-      <c r="S337">
-        <v>28290</v>
-      </c>
-      <c r="T337">
-        <v>27957</v>
-      </c>
-      <c r="U337">
-        <v>27747</v>
-      </c>
-      <c r="V337">
-        <v>27883</v>
-      </c>
-      <c r="W337">
-        <v>29268</v>
-      </c>
-      <c r="X337">
-        <v>31814</v>
-      </c>
-      <c r="Y337">
-        <v>31812</v>
-      </c>
-      <c r="Z337">
-        <v>31044</v>
-      </c>
-      <c r="AA337">
-        <v>30094</v>
-      </c>
-      <c r="AB337">
-        <v>28683</v>
-      </c>
-      <c r="AC337">
-        <v>27102</v>
+      <c r="O337" s="2">
+        <v>27991.868575999997</v>
+      </c>
+      <c r="P337" s="2">
+        <v>29080.654196</v>
+      </c>
+      <c r="Q337" s="2">
+        <v>29589.201807000005</v>
+      </c>
+      <c r="R337" s="2">
+        <v>28953.913276000003</v>
+      </c>
+      <c r="S337" s="2">
+        <v>28290.149744999999</v>
+      </c>
+      <c r="T337" s="2">
+        <v>27957.454279999994</v>
+      </c>
+      <c r="U337" s="2">
+        <v>27746.869295999997</v>
+      </c>
+      <c r="V337" s="2">
+        <v>27883.472172999998</v>
+      </c>
+      <c r="W337" s="2">
+        <v>29268.400000000001</v>
+      </c>
+      <c r="X337" s="2">
+        <v>31814.416161999994</v>
+      </c>
+      <c r="Y337" s="2">
+        <v>31812.400000000001</v>
+      </c>
+      <c r="Z337" s="2">
+        <v>31044.402377999999</v>
+      </c>
+      <c r="AA337" s="2">
+        <v>30093.744359</v>
+      </c>
+      <c r="AB337" s="2">
+        <v>28682.864275000004</v>
+      </c>
+      <c r="AC337" s="2">
+        <v>27102.112930000003</v>
       </c>
     </row>
     <row r="338" spans="1:29" x14ac:dyDescent="0.2">
@@ -31260,77 +31285,77 @@
       <c r="E338">
         <v>1</v>
       </c>
-      <c r="F338">
-        <v>25256</v>
-      </c>
-      <c r="G338">
-        <v>24108</v>
-      </c>
-      <c r="H338">
-        <v>23226</v>
-      </c>
-      <c r="I338">
-        <v>22984</v>
-      </c>
-      <c r="J338">
-        <v>22877</v>
-      </c>
-      <c r="K338">
-        <v>23350</v>
-      </c>
-      <c r="L338">
-        <v>24160</v>
-      </c>
-      <c r="M338">
-        <v>25601</v>
-      </c>
-      <c r="N338">
-        <v>27628</v>
-      </c>
-      <c r="O338">
-        <v>28787</v>
-      </c>
-      <c r="P338">
-        <v>29346</v>
-      </c>
-      <c r="Q338">
-        <v>29833</v>
-      </c>
-      <c r="R338">
-        <v>29089</v>
-      </c>
-      <c r="S338">
-        <v>28508</v>
-      </c>
-      <c r="T338">
-        <v>28384</v>
-      </c>
-      <c r="U338">
-        <v>28230</v>
-      </c>
-      <c r="V338">
-        <v>28405</v>
-      </c>
-      <c r="W338">
-        <v>29195</v>
-      </c>
-      <c r="X338">
-        <v>32073</v>
-      </c>
-      <c r="Y338">
-        <v>32577</v>
-      </c>
-      <c r="Z338">
-        <v>32034</v>
-      </c>
-      <c r="AA338">
-        <v>31175</v>
-      </c>
-      <c r="AB338">
-        <v>29502</v>
-      </c>
-      <c r="AC338">
-        <v>27347</v>
+      <c r="F338" s="2">
+        <v>25255.912665999997</v>
+      </c>
+      <c r="G338" s="2">
+        <v>24107.5</v>
+      </c>
+      <c r="H338" s="2">
+        <v>23225.839139999996</v>
+      </c>
+      <c r="I338" s="2">
+        <v>22983.772295000002</v>
+      </c>
+      <c r="J338" s="2">
+        <v>22876.961302999996</v>
+      </c>
+      <c r="K338" s="2">
+        <v>23350.1</v>
+      </c>
+      <c r="L338" s="2">
+        <v>24159.517598000006</v>
+      </c>
+      <c r="M338" s="2">
+        <v>25600.5</v>
+      </c>
+      <c r="N338" s="2">
+        <v>27628.3</v>
+      </c>
+      <c r="O338" s="2">
+        <v>28786.507781999997</v>
+      </c>
+      <c r="P338" s="2">
+        <v>29346.331311000002</v>
+      </c>
+      <c r="Q338" s="2">
+        <v>29833.1</v>
+      </c>
+      <c r="R338" s="2">
+        <v>29089.298619999994</v>
+      </c>
+      <c r="S338" s="2">
+        <v>28507.892259999997</v>
+      </c>
+      <c r="T338" s="2">
+        <v>28383.918841999995</v>
+      </c>
+      <c r="U338" s="2">
+        <v>28229.865122000003</v>
+      </c>
+      <c r="V338" s="2">
+        <v>28405.405851</v>
+      </c>
+      <c r="W338" s="2">
+        <v>29194.990703999996</v>
+      </c>
+      <c r="X338" s="2">
+        <v>32072.553798999998</v>
+      </c>
+      <c r="Y338" s="2">
+        <v>32577.105854999998</v>
+      </c>
+      <c r="Z338" s="2">
+        <v>32034.116816000002</v>
+      </c>
+      <c r="AA338" s="2">
+        <v>31175.3</v>
+      </c>
+      <c r="AB338" s="2">
+        <v>29501.992908</v>
+      </c>
+      <c r="AC338" s="2">
+        <v>27346.677907999994</v>
       </c>
     </row>
     <row r="339" spans="1:29" x14ac:dyDescent="0.2">
@@ -31349,77 +31374,77 @@
       <c r="E339">
         <v>1</v>
       </c>
-      <c r="F339">
-        <v>25235</v>
-      </c>
-      <c r="G339">
-        <v>23979</v>
-      </c>
-      <c r="H339">
-        <v>23339</v>
-      </c>
-      <c r="I339">
-        <v>22958</v>
-      </c>
-      <c r="J339">
-        <v>22893</v>
-      </c>
-      <c r="K339">
-        <v>23401</v>
-      </c>
-      <c r="L339">
-        <v>23965</v>
-      </c>
-      <c r="M339">
-        <v>25345</v>
-      </c>
-      <c r="N339">
-        <v>27154</v>
-      </c>
-      <c r="O339">
-        <v>28642</v>
-      </c>
-      <c r="P339">
-        <v>29430</v>
-      </c>
-      <c r="Q339">
-        <v>29606</v>
-      </c>
-      <c r="R339">
-        <v>29338</v>
-      </c>
-      <c r="S339">
-        <v>28427</v>
-      </c>
-      <c r="T339">
-        <v>28521</v>
-      </c>
-      <c r="U339">
-        <v>28109</v>
-      </c>
-      <c r="V339">
-        <v>28249</v>
-      </c>
-      <c r="W339">
-        <v>29373</v>
-      </c>
-      <c r="X339">
-        <v>32083</v>
-      </c>
-      <c r="Y339">
-        <v>32026</v>
-      </c>
-      <c r="Z339">
-        <v>31592</v>
-      </c>
-      <c r="AA339">
-        <v>30521</v>
-      </c>
-      <c r="AB339">
-        <v>29411</v>
-      </c>
-      <c r="AC339">
-        <v>27361</v>
+      <c r="F339" s="2">
+        <v>25234.831544999997</v>
+      </c>
+      <c r="G339" s="2">
+        <v>23978.756284999999</v>
+      </c>
+      <c r="H339" s="2">
+        <v>23338.5</v>
+      </c>
+      <c r="I339" s="2">
+        <v>22957.793088000002</v>
+      </c>
+      <c r="J339" s="2">
+        <v>22892.799999999999</v>
+      </c>
+      <c r="K339" s="2">
+        <v>23400.7</v>
+      </c>
+      <c r="L339" s="2">
+        <v>23965.077245999997</v>
+      </c>
+      <c r="M339" s="2">
+        <v>25344.6</v>
+      </c>
+      <c r="N339" s="2">
+        <v>27153.5</v>
+      </c>
+      <c r="O339" s="2">
+        <v>28641.999973999998</v>
+      </c>
+      <c r="P339" s="2">
+        <v>29429.503861999998</v>
+      </c>
+      <c r="Q339" s="2">
+        <v>29605.733816999997</v>
+      </c>
+      <c r="R339" s="2">
+        <v>29338.144537999997</v>
+      </c>
+      <c r="S339" s="2">
+        <v>28427.189988000002</v>
+      </c>
+      <c r="T339" s="2">
+        <v>28521.046844</v>
+      </c>
+      <c r="U339" s="2">
+        <v>28109.464614000004</v>
+      </c>
+      <c r="V339" s="2">
+        <v>28249.289185000005</v>
+      </c>
+      <c r="W339" s="2">
+        <v>29373.389847999995</v>
+      </c>
+      <c r="X339" s="2">
+        <v>32083.378230000006</v>
+      </c>
+      <c r="Y339" s="2">
+        <v>32025.758529000006</v>
+      </c>
+      <c r="Z339" s="2">
+        <v>31591.680022000004</v>
+      </c>
+      <c r="AA339" s="2">
+        <v>30520.831571999996</v>
+      </c>
+      <c r="AB339" s="2">
+        <v>29410.668314000006</v>
+      </c>
+      <c r="AC339" s="2">
+        <v>27361.350185000003</v>
       </c>
     </row>
     <row r="340" spans="1:29" x14ac:dyDescent="0.2">
@@ -31438,77 +31463,77 @@
       <c r="E340">
         <v>1</v>
       </c>
-      <c r="F340">
-        <v>25384</v>
-      </c>
-      <c r="G340">
-        <v>23962</v>
-      </c>
-      <c r="H340">
-        <v>23222</v>
-      </c>
-      <c r="I340">
-        <v>22862</v>
-      </c>
-      <c r="J340">
-        <v>22814</v>
-      </c>
-      <c r="K340">
-        <v>23156</v>
-      </c>
-      <c r="L340">
-        <v>23821</v>
-      </c>
-      <c r="M340">
-        <v>25210</v>
-      </c>
-      <c r="N340">
-        <v>27122</v>
-      </c>
-      <c r="O340">
-        <v>28800</v>
-      </c>
-      <c r="P340">
-        <v>29225</v>
-      </c>
-      <c r="Q340">
-        <v>29748</v>
-      </c>
-      <c r="R340">
-        <v>29508</v>
-      </c>
-      <c r="S340">
-        <v>28742</v>
-      </c>
-      <c r="T340">
-        <v>28758</v>
-      </c>
-      <c r="U340">
-        <v>28427</v>
-      </c>
-      <c r="V340">
-        <v>28617</v>
-      </c>
-      <c r="W340">
-        <v>29771</v>
-      </c>
-      <c r="X340">
-        <v>32229</v>
-      </c>
-      <c r="Y340">
-        <v>32527</v>
-      </c>
-      <c r="Z340">
-        <v>32252</v>
-      </c>
-      <c r="AA340">
-        <v>30961</v>
-      </c>
-      <c r="AB340">
-        <v>29664</v>
-      </c>
-      <c r="AC340">
-        <v>27780</v>
+      <c r="F340" s="2">
+        <v>25384.402350999997</v>
+      </c>
+      <c r="G340" s="2">
+        <v>23961.814295999997</v>
+      </c>
+      <c r="H340" s="2">
+        <v>23221.561858000005</v>
+      </c>
+      <c r="I340" s="2">
+        <v>22861.795270000002</v>
+      </c>
+      <c r="J340" s="2">
+        <v>22814.229325999997</v>
+      </c>
+      <c r="K340" s="2">
+        <v>23155.9</v>
+      </c>
+      <c r="L340" s="2">
+        <v>23820.597275999997</v>
+      </c>
+      <c r="M340" s="2">
+        <v>25209.599999999999</v>
+      </c>
+      <c r="N340" s="2">
+        <v>27122.025181999998</v>
+      </c>
+      <c r="O340" s="2">
+        <v>28800.068373999999</v>
+      </c>
+      <c r="P340" s="2">
+        <v>29225.259797999995</v>
+      </c>
+      <c r="Q340" s="2">
+        <v>29748.3</v>
+      </c>
+      <c r="R340" s="2">
+        <v>29507.543474000002</v>
+      </c>
+      <c r="S340" s="2">
+        <v>28741.521750000004</v>
+      </c>
+      <c r="T340" s="2">
+        <v>28757.726076000003</v>
+      </c>
+      <c r="U340" s="2">
+        <v>28427.090425999995</v>
+      </c>
+      <c r="V340" s="2">
+        <v>28617.139735000004</v>
+      </c>
+      <c r="W340" s="2">
+        <v>29770.702877999993</v>
+      </c>
+      <c r="X340" s="2">
+        <v>32229.014047999997</v>
+      </c>
+      <c r="Y340" s="2">
+        <v>32527.456730999998</v>
+      </c>
+      <c r="Z340" s="2">
+        <v>32251.8</v>
+      </c>
+      <c r="AA340" s="2">
+        <v>30960.810836000004</v>
+      </c>
+      <c r="AB340" s="2">
+        <v>29664.261204000002</v>
+      </c>
+      <c r="AC340" s="2">
+        <v>27780.235227999998</v>
       </c>
     </row>
     <row r="341" spans="1:29" x14ac:dyDescent="0.2">
@@ -31527,77 +31552,77 @@
       <c r="E341">
         <v>1</v>
       </c>
-      <c r="F341">
-        <v>25879</v>
-      </c>
-      <c r="G341">
-        <v>24495</v>
-      </c>
-      <c r="H341">
-        <v>23762</v>
-      </c>
-      <c r="I341">
-        <v>23330</v>
-      </c>
-      <c r="J341">
-        <v>23348</v>
-      </c>
-      <c r="K341">
-        <v>23767</v>
-      </c>
-      <c r="L341">
-        <v>24207</v>
-      </c>
-      <c r="M341">
-        <v>25430</v>
-      </c>
-      <c r="N341">
-        <v>27661</v>
-      </c>
-      <c r="O341">
-        <v>28820</v>
-      </c>
-      <c r="P341">
-        <v>29888</v>
-      </c>
-      <c r="Q341">
-        <v>30019</v>
-      </c>
-      <c r="R341">
-        <v>29701</v>
-      </c>
-      <c r="S341">
-        <v>28759</v>
-      </c>
-      <c r="T341">
-        <v>28673</v>
-      </c>
-      <c r="U341">
-        <v>28403</v>
-      </c>
-      <c r="V341">
-        <v>28349</v>
-      </c>
-      <c r="W341">
-        <v>29236</v>
-      </c>
-      <c r="X341">
-        <v>32281</v>
-      </c>
-      <c r="Y341">
-        <v>32326</v>
-      </c>
-      <c r="Z341">
-        <v>31780</v>
-      </c>
-      <c r="AA341">
-        <v>30998</v>
-      </c>
-      <c r="AB341">
-        <v>29723</v>
-      </c>
-      <c r="AC341">
-        <v>27788</v>
+      <c r="F341" s="2">
+        <v>25879.144235999996</v>
+      </c>
+      <c r="G341" s="2">
+        <v>24495.086125999995</v>
+      </c>
+      <c r="H341" s="2">
+        <v>23762.2</v>
+      </c>
+      <c r="I341" s="2">
+        <v>23329.872222000002</v>
+      </c>
+      <c r="J341" s="2">
+        <v>23348.086400000004</v>
+      </c>
+      <c r="K341" s="2">
+        <v>23767.1</v>
+      </c>
+      <c r="L341" s="2">
+        <v>24207.116536000001</v>
+      </c>
+      <c r="M341" s="2">
+        <v>25429.633042000001</v>
+      </c>
+      <c r="N341" s="2">
+        <v>27660.685852000006</v>
+      </c>
+      <c r="O341" s="2">
+        <v>28819.5</v>
+      </c>
+      <c r="P341" s="2">
+        <v>29887.949368000005</v>
+      </c>
+      <c r="Q341" s="2">
+        <v>30018.882558000005</v>
+      </c>
+      <c r="R341" s="2">
+        <v>29700.986132000002</v>
+      </c>
+      <c r="S341" s="2">
+        <v>28758.736137999997</v>
+      </c>
+      <c r="T341" s="2">
+        <v>28673.1</v>
+      </c>
+      <c r="U341" s="2">
+        <v>28402.5</v>
+      </c>
+      <c r="V341" s="2">
+        <v>28349.434411000006</v>
+      </c>
+      <c r="W341" s="2">
+        <v>29235.700835</v>
+      </c>
+      <c r="X341" s="2">
+        <v>32281.239515999994</v>
+      </c>
+      <c r="Y341" s="2">
+        <v>32325.805427000003</v>
+      </c>
+      <c r="Z341" s="2">
+        <v>31779.953940000003</v>
+      </c>
+      <c r="AA341" s="2">
+        <v>30998.499619999999</v>
+      </c>
+      <c r="AB341" s="2">
+        <v>29723.4</v>
+      </c>
+      <c r="AC341" s="2">
+        <v>27788.159040000002</v>
       </c>
     </row>
     <row r="342" spans="1:29" x14ac:dyDescent="0.2">
@@ -31616,77 +31641,77 @@
       <c r="E342">
         <v>1</v>
       </c>
-      <c r="F342">
-        <v>25655</v>
-      </c>
-      <c r="G342">
-        <v>24462</v>
-      </c>
-      <c r="H342">
-        <v>23676</v>
-      </c>
-      <c r="I342">
-        <v>23440</v>
-      </c>
-      <c r="J342">
-        <v>23029</v>
-      </c>
-      <c r="K342">
-        <v>23151</v>
-      </c>
-      <c r="L342">
-        <v>23418</v>
-      </c>
-      <c r="M342">
-        <v>24862</v>
-      </c>
-      <c r="N342">
-        <v>27324</v>
-      </c>
-      <c r="O342">
-        <v>28746</v>
-      </c>
-      <c r="P342">
+      <c r="F342" s="2">
+        <v>25655.087567999999</v>
+      </c>
+      <c r="G342" s="2">
+        <v>24462.494500000001</v>
+      </c>
+      <c r="H342" s="2">
+        <v>23675.819171000003</v>
+      </c>
+      <c r="I342" s="2">
+        <v>23440.248433000001</v>
+      </c>
+      <c r="J342" s="2">
+        <v>23028.986449999997</v>
+      </c>
+      <c r="K342" s="2">
+        <v>23150.700838999997</v>
+      </c>
+      <c r="L342" s="2">
+        <v>23417.636906999996</v>
+      </c>
+      <c r="M342" s="2">
+        <v>24862.433842000002</v>
+      </c>
+      <c r="N342" s="2">
+        <v>27324.328303999999</v>
+      </c>
+      <c r="O342" s="2">
+        <v>28745.991034000006</v>
+      </c>
+      <c r="P342" s="2">
         <v>29472</v>
       </c>
-      <c r="Q342">
-        <v>29767</v>
-      </c>
-      <c r="R342">
-        <v>29386</v>
-      </c>
-      <c r="S342">
-        <v>27937</v>
-      </c>
-      <c r="T342">
-        <v>27729</v>
-      </c>
-      <c r="U342">
-        <v>27373</v>
-      </c>
-      <c r="V342">
-        <v>27225</v>
-      </c>
-      <c r="W342">
-        <v>27823</v>
-      </c>
-      <c r="X342">
-        <v>30673</v>
-      </c>
-      <c r="Y342">
-        <v>31379</v>
-      </c>
-      <c r="Z342">
-        <v>31085</v>
-      </c>
-      <c r="AA342">
-        <v>30003</v>
-      </c>
-      <c r="AB342">
-        <v>29418</v>
-      </c>
-      <c r="AC342">
-        <v>28214</v>
+      <c r="Q342" s="2">
+        <v>29766.773315999995</v>
+      </c>
+      <c r="R342" s="2">
+        <v>29386.495169999995</v>
+      </c>
+      <c r="S342" s="2">
+        <v>27937.190599999998</v>
+      </c>
+      <c r="T342" s="2">
+        <v>27729.487043999994</v>
+      </c>
+      <c r="U342" s="2">
+        <v>27372.932681000002</v>
+      </c>
+      <c r="V342" s="2">
+        <v>27225.081795999999</v>
+      </c>
+      <c r="W342" s="2">
+        <v>27822.666091000003</v>
+      </c>
+      <c r="X342" s="2">
+        <v>30672.748916000004</v>
+      </c>
+      <c r="Y342" s="2">
+        <v>31379.060677999994</v>
+      </c>
+      <c r="Z342" s="2">
+        <v>31085.360557999997</v>
+      </c>
+      <c r="AA342" s="2">
+        <v>30003.065625999996</v>
+      </c>
+      <c r="AB342" s="2">
+        <v>29417.665288</v>
+      </c>
+      <c r="AC342" s="2">
+        <v>28213.870700000003</v>
       </c>
     </row>
     <row r="343" spans="1:29" x14ac:dyDescent="0.2">
@@ -31705,77 +31730,77 @@
       <c r="E343">
         <v>1</v>
       </c>
-      <c r="F343">
-        <v>26647</v>
-      </c>
-      <c r="G343">
-        <v>25469</v>
-      </c>
-      <c r="H343">
-        <v>24537</v>
-      </c>
-      <c r="I343">
-        <v>23978</v>
-      </c>
-      <c r="J343">
-        <v>23355</v>
-      </c>
-      <c r="K343">
-        <v>22792</v>
-      </c>
-      <c r="L343">
-        <v>22547</v>
-      </c>
-      <c r="M343">
-        <v>22426</v>
-      </c>
-      <c r="N343">
-        <v>23623</v>
-      </c>
-      <c r="O343">
-        <v>24906</v>
-      </c>
-      <c r="P343">
-        <v>26035</v>
-      </c>
-      <c r="Q343">
-        <v>26516</v>
-      </c>
-      <c r="R343">
-        <v>26283</v>
-      </c>
-      <c r="S343">
-        <v>25603</v>
-      </c>
-      <c r="T343">
-        <v>25030</v>
-      </c>
-      <c r="U343">
-        <v>24632</v>
-      </c>
-      <c r="V343">
-        <v>25057</v>
-      </c>
-      <c r="W343">
-        <v>25982</v>
-      </c>
-      <c r="X343">
-        <v>29113</v>
-      </c>
-      <c r="Y343">
-        <v>29695</v>
-      </c>
-      <c r="Z343">
-        <v>29639</v>
-      </c>
-      <c r="AA343">
-        <v>29027</v>
-      </c>
-      <c r="AB343">
-        <v>28261</v>
-      </c>
-      <c r="AC343">
-        <v>26615</v>
+      <c r="F343" s="2">
+        <v>26647.003094</v>
+      </c>
+      <c r="G343" s="2">
+        <v>25468.995099999996</v>
+      </c>
+      <c r="H343" s="2">
+        <v>24536.984235</v>
+      </c>
+      <c r="I343" s="2">
+        <v>23977.957509</v>
+      </c>
+      <c r="J343" s="2">
+        <v>23355.4</v>
+      </c>
+      <c r="K343" s="2">
+        <v>22791.717850999998</v>
+      </c>
+      <c r="L343" s="2">
+        <v>22547.40926</v>
+      </c>
+      <c r="M343" s="2">
+        <v>22426.131496999998</v>
+      </c>
+      <c r="N343" s="2">
+        <v>23623.345946000001</v>
+      </c>
+      <c r="O343" s="2">
+        <v>24905.7</v>
+      </c>
+      <c r="P343" s="2">
+        <v>26035.205097000002</v>
+      </c>
+      <c r="Q343" s="2">
+        <v>26515.770057000002</v>
+      </c>
+      <c r="R343" s="2">
+        <v>26282.907245000002</v>
+      </c>
+      <c r="S343" s="2">
+        <v>25602.758521999996</v>
+      </c>
+      <c r="T343" s="2">
+        <v>25030.145194999997</v>
+      </c>
+      <c r="U343" s="2">
+        <v>24632.2549</v>
+      </c>
+      <c r="V343" s="2">
+        <v>25057.4</v>
+      </c>
+      <c r="W343" s="2">
+        <v>25982.242295000004</v>
+      </c>
+      <c r="X343" s="2">
+        <v>29112.988872000002</v>
+      </c>
+      <c r="Y343" s="2">
+        <v>29695.197963999999</v>
+      </c>
+      <c r="Z343" s="2">
+        <v>29638.676562000001</v>
+      </c>
+      <c r="AA343" s="2">
+        <v>29027.191430000006</v>
+      </c>
+      <c r="AB343" s="2">
+        <v>28261.393808999997</v>
+      </c>
+      <c r="AC343" s="2">
+        <v>26615.316166999997</v>
       </c>
     </row>
     <row r="344" spans="1:29" x14ac:dyDescent="0.2">
@@ -31794,77 +31819,77 @@
       <c r="E344">
         <v>1</v>
       </c>
-      <c r="F344">
-        <v>24729</v>
-      </c>
-      <c r="G344">
-        <v>23182</v>
-      </c>
-      <c r="H344">
-        <v>22498</v>
-      </c>
-      <c r="I344">
-        <v>22104</v>
-      </c>
-      <c r="J344">
-        <v>22283</v>
-      </c>
-      <c r="K344">
-        <v>22608</v>
-      </c>
-      <c r="L344">
-        <v>23170</v>
-      </c>
-      <c r="M344">
-        <v>24607</v>
-      </c>
-      <c r="N344">
-        <v>26840</v>
-      </c>
-      <c r="O344">
-        <v>28108</v>
-      </c>
-      <c r="P344">
-        <v>29601</v>
-      </c>
-      <c r="Q344">
-        <v>30012</v>
-      </c>
-      <c r="R344">
-        <v>29558</v>
-      </c>
-      <c r="S344">
-        <v>28828</v>
-      </c>
-      <c r="T344">
-        <v>28648</v>
-      </c>
-      <c r="U344">
-        <v>28591</v>
-      </c>
-      <c r="V344">
-        <v>28449</v>
-      </c>
-      <c r="W344">
-        <v>29426</v>
-      </c>
-      <c r="X344">
-        <v>32185</v>
-      </c>
-      <c r="Y344">
-        <v>32252</v>
-      </c>
-      <c r="Z344">
-        <v>31678</v>
-      </c>
-      <c r="AA344">
-        <v>30971</v>
-      </c>
-      <c r="AB344">
-        <v>29474</v>
-      </c>
-      <c r="AC344">
-        <v>27495</v>
+      <c r="F344" s="2">
+        <v>24729.450205999998</v>
+      </c>
+      <c r="G344" s="2">
+        <v>23181.877378000001</v>
+      </c>
+      <c r="H344" s="2">
+        <v>22497.824398000004</v>
+      </c>
+      <c r="I344" s="2">
+        <v>22103.521452000001</v>
+      </c>
+      <c r="J344" s="2">
+        <v>22283.141123000005</v>
+      </c>
+      <c r="K344" s="2">
+        <v>22607.624011</v>
+      </c>
+      <c r="L344" s="2">
+        <v>23170.1</v>
+      </c>
+      <c r="M344" s="2">
+        <v>24607.1</v>
+      </c>
+      <c r="N344" s="2">
+        <v>26839.881361999993</v>
+      </c>
+      <c r="O344" s="2">
+        <v>28107.600973999997</v>
+      </c>
+      <c r="P344" s="2">
+        <v>29601.475665999995</v>
+      </c>
+      <c r="Q344" s="2">
+        <v>30011.850672</v>
+      </c>
+      <c r="R344" s="2">
+        <v>29557.579280000002</v>
+      </c>
+      <c r="S344" s="2">
+        <v>28827.725992999996</v>
+      </c>
+      <c r="T344" s="2">
+        <v>28648.001392999999</v>
+      </c>
+      <c r="U344" s="2">
+        <v>28591.310991000006</v>
+      </c>
+      <c r="V344" s="2">
+        <v>28448.783717000002</v>
+      </c>
+      <c r="W344" s="2">
+        <v>29426.208910999998</v>
+      </c>
+      <c r="X344" s="2">
+        <v>32184.638149999995</v>
+      </c>
+      <c r="Y344" s="2">
+        <v>32252.378246</v>
+      </c>
+      <c r="Z344" s="2">
+        <v>31678.454983999996</v>
+      </c>
+      <c r="AA344" s="2">
+        <v>30970.842000999997</v>
+      </c>
+      <c r="AB344" s="2">
+        <v>29474.348265000001</v>
+      </c>
+      <c r="AC344" s="2">
+        <v>27494.668695999997</v>
       </c>
     </row>
     <row r="345" spans="1:29" x14ac:dyDescent="0.2">
@@ -31883,77 +31908,77 @@
       <c r="E345">
         <v>1</v>
       </c>
-      <c r="F345">
-        <v>25641</v>
-      </c>
-      <c r="G345">
-        <v>24448</v>
-      </c>
-      <c r="H345">
-        <v>23663</v>
-      </c>
-      <c r="I345">
-        <v>23855</v>
-      </c>
-      <c r="J345">
-        <v>23709</v>
-      </c>
-      <c r="K345">
-        <v>23962</v>
-      </c>
-      <c r="L345">
-        <v>24266</v>
-      </c>
-      <c r="M345">
-        <v>25642</v>
-      </c>
-      <c r="N345">
-        <v>27656</v>
-      </c>
-      <c r="O345">
-        <v>28905</v>
-      </c>
-      <c r="P345">
-        <v>29938</v>
-      </c>
-      <c r="Q345">
-        <v>30324</v>
-      </c>
-      <c r="R345">
-        <v>30165</v>
-      </c>
-      <c r="S345">
-        <v>29219</v>
-      </c>
-      <c r="T345">
-        <v>29062</v>
-      </c>
-      <c r="U345">
-        <v>28602</v>
-      </c>
-      <c r="V345">
-        <v>28548</v>
-      </c>
-      <c r="W345">
-        <v>29849</v>
-      </c>
-      <c r="X345">
-        <v>32328</v>
-      </c>
-      <c r="Y345">
-        <v>32673</v>
-      </c>
-      <c r="Z345">
-        <v>31798</v>
-      </c>
-      <c r="AA345">
-        <v>31011</v>
-      </c>
-      <c r="AB345">
-        <v>29568</v>
-      </c>
-      <c r="AC345">
-        <v>27748</v>
+      <c r="F345" s="2">
+        <v>25641.019455999998</v>
+      </c>
+      <c r="G345" s="2">
+        <v>24447.599245000001</v>
+      </c>
+      <c r="H345" s="2">
+        <v>23662.9</v>
+      </c>
+      <c r="I345" s="2">
+        <v>23854.659674999999</v>
+      </c>
+      <c r="J345" s="2">
+        <v>23708.6</v>
+      </c>
+      <c r="K345" s="2">
+        <v>23962.306321000004</v>
+      </c>
+      <c r="L345" s="2">
+        <v>24266.369539999996</v>
+      </c>
+      <c r="M345" s="2">
+        <v>25641.915950000002</v>
+      </c>
+      <c r="N345" s="2">
+        <v>27655.662421999994</v>
+      </c>
+      <c r="O345" s="2">
+        <v>28905.386401999993</v>
+      </c>
+      <c r="P345" s="2">
+        <v>29938.400816000001</v>
+      </c>
+      <c r="Q345" s="2">
+        <v>30323.538409999994</v>
+      </c>
+      <c r="R345" s="2">
+        <v>30165.276404999997</v>
+      </c>
+      <c r="S345" s="2">
+        <v>29218.890762000003</v>
+      </c>
+      <c r="T345" s="2">
+        <v>29062.470577000004</v>
+      </c>
+      <c r="U345" s="2">
+        <v>28601.996175999997</v>
+      </c>
+      <c r="V345" s="2">
+        <v>28548.432870000004</v>
+      </c>
+      <c r="W345" s="2">
+        <v>29848.799999999999</v>
+      </c>
+      <c r="X345" s="2">
+        <v>32327.791983999996</v>
+      </c>
+      <c r="Y345" s="2">
+        <v>32673.409991999997</v>
+      </c>
+      <c r="Z345" s="2">
+        <v>31798.174242999998</v>
+      </c>
+      <c r="AA345" s="2">
+        <v>31011.236241999995</v>
+      </c>
+      <c r="AB345" s="2">
+        <v>29568.308055000001</v>
+      </c>
+      <c r="AC345" s="2">
+        <v>27747.980534999999</v>
       </c>
     </row>
     <row r="346" spans="1:29" x14ac:dyDescent="0.2">
@@ -31972,77 +31997,77 @@
       <c r="E346">
         <v>1</v>
       </c>
-      <c r="F346">
-        <v>25506</v>
-      </c>
-      <c r="G346">
-        <v>24244</v>
-      </c>
-      <c r="H346">
-        <v>23401</v>
-      </c>
-      <c r="I346">
-        <v>22912</v>
-      </c>
-      <c r="J346">
-        <v>22703</v>
-      </c>
-      <c r="K346">
-        <v>23038</v>
-      </c>
-      <c r="L346">
-        <v>23904</v>
-      </c>
-      <c r="M346">
-        <v>25129</v>
-      </c>
-      <c r="N346">
-        <v>27505</v>
-      </c>
-      <c r="O346">
-        <v>28825</v>
-      </c>
-      <c r="P346">
-        <v>29675</v>
-      </c>
-      <c r="Q346">
-        <v>30227</v>
-      </c>
-      <c r="R346">
-        <v>29807</v>
-      </c>
-      <c r="S346">
-        <v>29432</v>
-      </c>
-      <c r="T346">
-        <v>29066</v>
-      </c>
-      <c r="U346">
-        <v>28897</v>
-      </c>
-      <c r="V346">
-        <v>28789</v>
-      </c>
-      <c r="W346">
-        <v>29742</v>
-      </c>
-      <c r="X346">
-        <v>32295</v>
-      </c>
-      <c r="Y346">
-        <v>32549</v>
-      </c>
-      <c r="Z346">
-        <v>32213</v>
-      </c>
-      <c r="AA346">
-        <v>31143</v>
-      </c>
-      <c r="AB346">
-        <v>29643</v>
-      </c>
-      <c r="AC346">
-        <v>27583</v>
+      <c r="F346" s="2">
+        <v>25505.557767999995</v>
+      </c>
+      <c r="G346" s="2">
+        <v>24243.829338000003</v>
+      </c>
+      <c r="H346" s="2">
+        <v>23400.542307999996</v>
+      </c>
+      <c r="I346" s="2">
+        <v>22911.9</v>
+      </c>
+      <c r="J346" s="2">
+        <v>22703.1</v>
+      </c>
+      <c r="K346" s="2">
+        <v>23037.500824000002</v>
+      </c>
+      <c r="L346" s="2">
+        <v>23904.3</v>
+      </c>
+      <c r="M346" s="2">
+        <v>25129.453935999998</v>
+      </c>
+      <c r="N346" s="2">
+        <v>27502.624092000005</v>
+      </c>
+      <c r="O346" s="2">
+        <v>28822.171367999996</v>
+      </c>
+      <c r="P346" s="2">
+        <v>29671.832530999996</v>
+      </c>
+      <c r="Q346" s="2">
+        <v>30224.077855000003</v>
+      </c>
+      <c r="R346" s="2">
+        <v>29803.606510000005</v>
+      </c>
+      <c r="S346" s="2">
+        <v>29428.400834</v>
+      </c>
+      <c r="T346" s="2">
+        <v>29062.614377999995</v>
+      </c>
+      <c r="U346" s="2">
+        <v>28893.456818000002</v>
+      </c>
+      <c r="V346" s="2">
+        <v>28785.611847000004</v>
+      </c>
+      <c r="W346" s="2">
+        <v>29739.135109999996</v>
+      </c>
+      <c r="X346" s="2">
+        <v>32291.989680000002</v>
+      </c>
+      <c r="Y346" s="2">
+        <v>32545.870704000001</v>
+      </c>
+      <c r="Z346" s="2">
+        <v>32209.912343999993</v>
+      </c>
+      <c r="AA346" s="2">
+        <v>31140.681747999999</v>
+      </c>
+      <c r="AB346" s="2">
+        <v>29639.625730000007</v>
+      </c>
+      <c r="AC346" s="2">
+        <v>27580.037880999997</v>
       </c>
     </row>
     <row r="347" spans="1:29" x14ac:dyDescent="0.2">
@@ -32061,77 +32086,77 @@
       <c r="E347">
         <v>1</v>
       </c>
-      <c r="F347">
-        <v>25585</v>
-      </c>
-      <c r="G347">
-        <v>24078</v>
-      </c>
-      <c r="H347">
-        <v>23564</v>
-      </c>
-      <c r="I347">
-        <v>23176</v>
-      </c>
-      <c r="J347">
-        <v>23166</v>
-      </c>
-      <c r="K347">
-        <v>23187</v>
-      </c>
-      <c r="L347">
-        <v>23767</v>
-      </c>
-      <c r="M347">
-        <v>25151</v>
-      </c>
-      <c r="N347">
-        <v>27127</v>
-      </c>
-      <c r="O347">
-        <v>28485</v>
-      </c>
-      <c r="P347">
-        <v>29148</v>
-      </c>
-      <c r="Q347">
-        <v>29794</v>
-      </c>
-      <c r="R347">
-        <v>29399</v>
-      </c>
-      <c r="S347">
-        <v>28758</v>
-      </c>
-      <c r="T347">
-        <v>28461</v>
-      </c>
-      <c r="U347">
-        <v>28381</v>
-      </c>
-      <c r="V347">
-        <v>28161</v>
-      </c>
-      <c r="W347">
-        <v>28992</v>
-      </c>
-      <c r="X347">
-        <v>31552</v>
-      </c>
-      <c r="Y347">
-        <v>32184</v>
-      </c>
-      <c r="Z347">
-        <v>31558</v>
-      </c>
-      <c r="AA347">
-        <v>30794</v>
-      </c>
-      <c r="AB347">
-        <v>29433</v>
-      </c>
-      <c r="AC347">
-        <v>27667</v>
+      <c r="F347" s="2">
+        <v>25582.046499</v>
+      </c>
+      <c r="G347" s="2">
+        <v>24074.419019999998</v>
+      </c>
+      <c r="H347" s="2">
+        <v>23561</v>
+      </c>
+      <c r="I347" s="2">
+        <v>23172.400000000001</v>
+      </c>
+      <c r="J347" s="2">
+        <v>23162.985228000005</v>
+      </c>
+      <c r="K347" s="2">
+        <v>23183.870193000002</v>
+      </c>
+      <c r="L347" s="2">
+        <v>23763.813366999999</v>
+      </c>
+      <c r="M347" s="2">
+        <v>25148.024848000005</v>
+      </c>
+      <c r="N347" s="2">
+        <v>27127.141490000005</v>
+      </c>
+      <c r="O347" s="2">
+        <v>28484.616025999996</v>
+      </c>
+      <c r="P347" s="2">
+        <v>29148.234863000001</v>
+      </c>
+      <c r="Q347" s="2">
+        <v>29794.2</v>
+      </c>
+      <c r="R347" s="2">
+        <v>29399.449914999997</v>
+      </c>
+      <c r="S347" s="2">
+        <v>28757.8</v>
+      </c>
+      <c r="T347" s="2">
+        <v>28460.540607999999</v>
+      </c>
+      <c r="U347" s="2">
+        <v>28381.018295000002</v>
+      </c>
+      <c r="V347" s="2">
+        <v>28160.535076</v>
+      </c>
+      <c r="W347" s="2">
+        <v>28992.397559999994</v>
+      </c>
+      <c r="X347" s="2">
+        <v>31551.651999999998</v>
+      </c>
+      <c r="Y347" s="2">
+        <v>32183.683509999999</v>
+      </c>
+      <c r="Z347" s="2">
+        <v>31557.742666999999</v>
+      </c>
+      <c r="AA347" s="2">
+        <v>30794.074360000002</v>
+      </c>
+      <c r="AB347" s="2">
+        <v>29429.703555999997</v>
+      </c>
+      <c r="AC347" s="2">
+        <v>27664.176005000005</v>
       </c>
     </row>
     <row r="348" spans="1:29" x14ac:dyDescent="0.2">
@@ -32150,77 +32175,77 @@
       <c r="E348">
         <v>1</v>
       </c>
-      <c r="F348">
-        <v>25410</v>
-      </c>
-      <c r="G348">
-        <v>24048</v>
-      </c>
-      <c r="H348">
-        <v>23406</v>
-      </c>
-      <c r="I348">
-        <v>23183</v>
-      </c>
-      <c r="J348">
-        <v>22782</v>
-      </c>
-      <c r="K348">
-        <v>23223</v>
-      </c>
-      <c r="L348">
-        <v>23791</v>
-      </c>
-      <c r="M348">
-        <v>25052</v>
-      </c>
-      <c r="N348">
-        <v>26679</v>
-      </c>
-      <c r="O348">
-        <v>27965</v>
-      </c>
-      <c r="P348">
-        <v>28615</v>
-      </c>
-      <c r="Q348">
-        <v>28850</v>
-      </c>
-      <c r="R348">
-        <v>28187</v>
-      </c>
-      <c r="S348">
-        <v>27751</v>
-      </c>
-      <c r="T348">
-        <v>27612</v>
-      </c>
-      <c r="U348">
-        <v>27428</v>
-      </c>
-      <c r="V348">
-        <v>27667</v>
-      </c>
-      <c r="W348">
-        <v>28487</v>
-      </c>
-      <c r="X348">
-        <v>31323</v>
-      </c>
-      <c r="Y348">
-        <v>31802</v>
-      </c>
-      <c r="Z348">
-        <v>31188</v>
-      </c>
-      <c r="AA348">
-        <v>30427</v>
-      </c>
-      <c r="AB348">
-        <v>28981</v>
-      </c>
-      <c r="AC348">
-        <v>27441</v>
+      <c r="F348" s="2">
+        <v>25406.864047999999</v>
+      </c>
+      <c r="G348" s="2">
+        <v>24044.856625999997</v>
+      </c>
+      <c r="H348" s="2">
+        <v>23402.704867999997</v>
+      </c>
+      <c r="I348" s="2">
+        <v>23180.289891999997</v>
+      </c>
+      <c r="J348" s="2">
+        <v>22778.947365999997</v>
+      </c>
+      <c r="K348" s="2">
+        <v>23220.236283999995</v>
+      </c>
+      <c r="L348" s="2">
+        <v>23788.039076000005</v>
+      </c>
+      <c r="M348" s="2">
+        <v>25052.016952000005</v>
+      </c>
+      <c r="N348" s="2">
+        <v>26678.586978000003</v>
+      </c>
+      <c r="O348" s="2">
+        <v>27964.6</v>
+      </c>
+      <c r="P348" s="2">
+        <v>28615.098853000003</v>
+      </c>
+      <c r="Q348" s="2">
+        <v>28850.243800000004</v>
+      </c>
+      <c r="R348" s="2">
+        <v>28187.282171999996</v>
+      </c>
+      <c r="S348" s="2">
+        <v>27751.239646000005</v>
+      </c>
+      <c r="T348" s="2">
+        <v>27611.756872000002</v>
+      </c>
+      <c r="U348" s="2">
+        <v>27427.595287999993</v>
+      </c>
+      <c r="V348" s="2">
+        <v>27667.482384000003</v>
+      </c>
+      <c r="W348" s="2">
+        <v>28486.568608000001</v>
+      </c>
+      <c r="X348" s="2">
+        <v>31323.301910999999</v>
+      </c>
+      <c r="Y348" s="2">
+        <v>31801.829013999995</v>
+      </c>
+      <c r="Z348" s="2">
+        <v>31188.146124000003</v>
+      </c>
+      <c r="AA348" s="2">
+        <v>30426.835695999998</v>
+      </c>
+      <c r="AB348" s="2">
+        <v>28977.717910000003</v>
+      </c>
+      <c r="AC348" s="2">
+        <v>27437.555365000004</v>
       </c>
     </row>
     <row r="349" spans="1:29" x14ac:dyDescent="0.2">
@@ -32239,77 +32264,77 @@
       <c r="E349">
         <v>1</v>
       </c>
-      <c r="F349">
-        <v>25758</v>
-      </c>
-      <c r="G349">
-        <v>24603</v>
-      </c>
-      <c r="H349">
-        <v>23525</v>
-      </c>
-      <c r="I349">
-        <v>23211</v>
-      </c>
-      <c r="J349">
-        <v>23295</v>
-      </c>
-      <c r="K349">
-        <v>23632</v>
-      </c>
-      <c r="L349">
-        <v>23379</v>
-      </c>
-      <c r="M349">
-        <v>24336</v>
-      </c>
-      <c r="N349">
-        <v>26283</v>
-      </c>
-      <c r="O349">
-        <v>27934</v>
-      </c>
-      <c r="P349">
-        <v>28680</v>
-      </c>
-      <c r="Q349">
-        <v>29113</v>
-      </c>
-      <c r="R349">
-        <v>28605</v>
-      </c>
-      <c r="S349">
-        <v>27805</v>
-      </c>
-      <c r="T349">
-        <v>27092</v>
-      </c>
-      <c r="U349">
-        <v>26951</v>
-      </c>
-      <c r="V349">
-        <v>26850</v>
-      </c>
-      <c r="W349">
-        <v>27684</v>
-      </c>
-      <c r="X349">
-        <v>30467</v>
-      </c>
-      <c r="Y349">
-        <v>30965</v>
-      </c>
-      <c r="Z349">
-        <v>30444</v>
-      </c>
-      <c r="AA349">
-        <v>29668</v>
-      </c>
-      <c r="AB349">
-        <v>28732</v>
-      </c>
-      <c r="AC349">
-        <v>27373</v>
+      <c r="F349" s="2">
+        <v>25754.507867999997</v>
+      </c>
+      <c r="G349" s="2">
+        <v>24600.247472000003</v>
+      </c>
+      <c r="H349" s="2">
+        <v>23521.589895999998</v>
+      </c>
+      <c r="I349" s="2">
+        <v>23208.348394000001</v>
+      </c>
+      <c r="J349" s="2">
+        <v>23292.133768000007</v>
+      </c>
+      <c r="K349" s="2">
+        <v>23629.745026999994</v>
+      </c>
+      <c r="L349" s="2">
+        <v>23376.631489999996</v>
+      </c>
+      <c r="M349" s="2">
+        <v>24333.103556999999</v>
+      </c>
+      <c r="N349" s="2">
+        <v>26282.564411999996</v>
+      </c>
+      <c r="O349" s="2">
+        <v>27934.468750000004</v>
+      </c>
+      <c r="P349" s="2">
+        <v>28679.553044999997</v>
+      </c>
+      <c r="Q349" s="2">
+        <v>29112.744924000002</v>
+      </c>
+      <c r="R349" s="2">
+        <v>28604.527480000001</v>
+      </c>
+      <c r="S349" s="2">
+        <v>27805.292712999999</v>
+      </c>
+      <c r="T349" s="2">
+        <v>27091.7</v>
+      </c>
+      <c r="U349" s="2">
+        <v>26950.548207000003</v>
+      </c>
+      <c r="V349" s="2">
+        <v>26850.299360000001</v>
+      </c>
+      <c r="W349" s="2">
+        <v>27684.178301999997</v>
+      </c>
+      <c r="X349" s="2">
+        <v>30466.614650999996</v>
+      </c>
+      <c r="Y349" s="2">
+        <v>30964.902471999998</v>
+      </c>
+      <c r="Z349" s="2">
+        <v>30441.517947999993</v>
+      </c>
+      <c r="AA349" s="2">
+        <v>29665.542169999997</v>
+      </c>
+      <c r="AB349" s="2">
+        <v>28729.676239</v>
+      </c>
+      <c r="AC349" s="2">
+        <v>27370.526725000003</v>
       </c>
     </row>
     <row r="350" spans="1:29" x14ac:dyDescent="0.2">
@@ -32328,77 +32353,77 @@
       <c r="E350">
         <v>1</v>
       </c>
-      <c r="F350">
-        <v>25728</v>
-      </c>
-      <c r="G350">
-        <v>24637</v>
-      </c>
-      <c r="H350">
-        <v>24203</v>
-      </c>
-      <c r="I350">
-        <v>23791</v>
-      </c>
-      <c r="J350">
-        <v>23372</v>
-      </c>
-      <c r="K350">
-        <v>23632</v>
-      </c>
-      <c r="L350">
-        <v>22999</v>
-      </c>
-      <c r="M350">
-        <v>22397</v>
-      </c>
-      <c r="N350">
-        <v>23350</v>
-      </c>
-      <c r="O350">
-        <v>24485</v>
-      </c>
-      <c r="P350">
-        <v>25850</v>
-      </c>
-      <c r="Q350">
-        <v>26425</v>
-      </c>
-      <c r="R350">
-        <v>26016</v>
-      </c>
-      <c r="S350">
-        <v>25619</v>
-      </c>
-      <c r="T350">
-        <v>25084</v>
-      </c>
-      <c r="U350">
-        <v>25179</v>
-      </c>
-      <c r="V350">
-        <v>25396</v>
-      </c>
-      <c r="W350">
-        <v>26170</v>
-      </c>
-      <c r="X350">
-        <v>29350</v>
-      </c>
-      <c r="Y350">
-        <v>30147</v>
-      </c>
-      <c r="Z350">
-        <v>29890</v>
-      </c>
-      <c r="AA350">
-        <v>29348</v>
-      </c>
-      <c r="AB350">
-        <v>28034</v>
-      </c>
-      <c r="AC350">
-        <v>26344</v>
+      <c r="F350" s="2">
+        <v>25725.373365000003</v>
+      </c>
+      <c r="G350" s="2">
+        <v>24634.351687000002</v>
+      </c>
+      <c r="H350" s="2">
+        <v>24200.017236999996</v>
+      </c>
+      <c r="I350" s="2">
+        <v>23788.411045999997</v>
+      </c>
+      <c r="J350" s="2">
+        <v>23369.012104000005</v>
+      </c>
+      <c r="K350" s="2">
+        <v>23629.942580000003</v>
+      </c>
+      <c r="L350" s="2">
+        <v>22996.919191999994</v>
+      </c>
+      <c r="M350" s="2">
+        <v>22394.835883999996</v>
+      </c>
+      <c r="N350" s="2">
+        <v>23347.298503999999</v>
+      </c>
+      <c r="O350" s="2">
+        <v>24485.380872999995</v>
+      </c>
+      <c r="P350" s="2">
+        <v>25849.510023000003</v>
+      </c>
+      <c r="Q350" s="2">
+        <v>26424.919061999997</v>
+      </c>
+      <c r="R350" s="2">
+        <v>26015.946851999997</v>
+      </c>
+      <c r="S350" s="2">
+        <v>25619.442188999998</v>
+      </c>
+      <c r="T350" s="2">
+        <v>25083.525008000001</v>
+      </c>
+      <c r="U350" s="2">
+        <v>25178.852233000001</v>
+      </c>
+      <c r="V350" s="2">
+        <v>25395.941461000002</v>
+      </c>
+      <c r="W350" s="2">
+        <v>26169.798853</v>
+      </c>
+      <c r="X350" s="2">
+        <v>29349.823952000002</v>
+      </c>
+      <c r="Y350" s="2">
+        <v>30146.5</v>
+      </c>
+      <c r="Z350" s="2">
+        <v>29890.099552000003</v>
+      </c>
+      <c r="AA350" s="2">
+        <v>29348.2</v>
+      </c>
+      <c r="AB350" s="2">
+        <v>28033.993748000001</v>
+      </c>
+      <c r="AC350" s="2">
+        <v>26343.948488000002</v>
       </c>
     </row>
     <row r="351" spans="1:29" x14ac:dyDescent="0.2">
@@ -32417,77 +32442,77 @@
       <c r="E351">
         <v>1</v>
       </c>
-      <c r="F351">
-        <v>24715</v>
-      </c>
-      <c r="G351">
-        <v>23710</v>
-      </c>
-      <c r="H351">
-        <v>23281</v>
-      </c>
-      <c r="I351">
-        <v>23020</v>
-      </c>
-      <c r="J351">
-        <v>22960</v>
-      </c>
-      <c r="K351">
-        <v>23466</v>
-      </c>
-      <c r="L351">
-        <v>23590</v>
-      </c>
-      <c r="M351">
-        <v>24669</v>
-      </c>
-      <c r="N351">
-        <v>26783</v>
-      </c>
-      <c r="O351">
-        <v>28012</v>
-      </c>
-      <c r="P351">
-        <v>29125</v>
-      </c>
-      <c r="Q351">
-        <v>29640</v>
-      </c>
-      <c r="R351">
-        <v>29252</v>
-      </c>
-      <c r="S351">
-        <v>28456</v>
-      </c>
-      <c r="T351">
-        <v>28520</v>
-      </c>
-      <c r="U351">
-        <v>28410</v>
-      </c>
-      <c r="V351">
-        <v>28173</v>
-      </c>
-      <c r="W351">
-        <v>28661</v>
-      </c>
-      <c r="X351">
-        <v>31467</v>
-      </c>
-      <c r="Y351">
-        <v>32006</v>
-      </c>
-      <c r="Z351">
-        <v>31627</v>
-      </c>
-      <c r="AA351">
-        <v>30828</v>
-      </c>
-      <c r="AB351">
-        <v>29294</v>
-      </c>
-      <c r="AC351">
-        <v>27800</v>
+      <c r="F351" s="2">
+        <v>24712.367647999996</v>
+      </c>
+      <c r="G351" s="2">
+        <v>23707.793359999996</v>
+      </c>
+      <c r="H351" s="2">
+        <v>23277.9</v>
+      </c>
+      <c r="I351" s="2">
+        <v>23016.755465000002</v>
+      </c>
+      <c r="J351" s="2">
+        <v>22957.259685999998</v>
+      </c>
+      <c r="K351" s="2">
+        <v>23463.200000000001</v>
+      </c>
+      <c r="L351" s="2">
+        <v>23586.9</v>
+      </c>
+      <c r="M351" s="2">
+        <v>24665.773131999998</v>
+      </c>
+      <c r="N351" s="2">
+        <v>26779.435519000006</v>
+      </c>
+      <c r="O351" s="2">
+        <v>28008.801851999997</v>
+      </c>
+      <c r="P351" s="2">
+        <v>29122</v>
+      </c>
+      <c r="Q351" s="2">
+        <v>29636.977429000002</v>
+      </c>
+      <c r="R351" s="2">
+        <v>29252.132359999996</v>
+      </c>
+      <c r="S351" s="2">
+        <v>28455.596224000001</v>
+      </c>
+      <c r="T351" s="2">
+        <v>28520.347201000004</v>
+      </c>
+      <c r="U351" s="2">
+        <v>28410.265685999999</v>
+      </c>
+      <c r="V351" s="2">
+        <v>28173.424222000001</v>
+      </c>
+      <c r="W351" s="2">
+        <v>28661.375240000001</v>
+      </c>
+      <c r="X351" s="2">
+        <v>31466.782049999998</v>
+      </c>
+      <c r="Y351" s="2">
+        <v>32005.868677999999</v>
+      </c>
+      <c r="Z351" s="2">
+        <v>31627.148728</v>
+      </c>
+      <c r="AA351" s="2">
+        <v>30827.76125</v>
+      </c>
+      <c r="AB351" s="2">
+        <v>29293.809815000004</v>
+      </c>
+      <c r="AC351" s="2">
+        <v>27799.614962000003</v>
       </c>
     </row>
     <row r="352" spans="1:29" x14ac:dyDescent="0.2">
@@ -32506,77 +32531,77 @@
       <c r="E352">
         <v>1</v>
       </c>
-      <c r="F352">
-        <v>25610</v>
-      </c>
-      <c r="G352">
-        <v>24734</v>
-      </c>
-      <c r="H352">
-        <v>23688</v>
-      </c>
-      <c r="I352">
-        <v>23724</v>
-      </c>
-      <c r="J352">
-        <v>23514</v>
-      </c>
-      <c r="K352">
-        <v>23800</v>
-      </c>
-      <c r="L352">
-        <v>24275</v>
-      </c>
-      <c r="M352">
-        <v>25551</v>
-      </c>
-      <c r="N352">
-        <v>27299</v>
-      </c>
-      <c r="O352">
-        <v>28643</v>
-      </c>
-      <c r="P352">
-        <v>29219</v>
-      </c>
-      <c r="Q352">
-        <v>29743</v>
-      </c>
-      <c r="R352">
-        <v>29575</v>
-      </c>
-      <c r="S352">
-        <v>29065</v>
-      </c>
-      <c r="T352">
-        <v>28209</v>
-      </c>
-      <c r="U352">
+      <c r="F352" s="2">
+        <v>25609.551585999998</v>
+      </c>
+      <c r="G352" s="2">
+        <v>24734.145411999998</v>
+      </c>
+      <c r="H352" s="2">
+        <v>23687.8</v>
+      </c>
+      <c r="I352" s="2">
+        <v>23723.692915999996</v>
+      </c>
+      <c r="J352" s="2">
+        <v>23514.386223999994</v>
+      </c>
+      <c r="K352" s="2">
+        <v>23799.699519999995</v>
+      </c>
+      <c r="L352" s="2">
+        <v>24275.313273000003</v>
+      </c>
+      <c r="M352" s="2">
+        <v>25550.524124999996</v>
+      </c>
+      <c r="N352" s="2">
+        <v>27299.426153999993</v>
+      </c>
+      <c r="O352" s="2">
+        <v>28642.609654999997</v>
+      </c>
+      <c r="P352" s="2">
+        <v>29218.602085000002</v>
+      </c>
+      <c r="Q352" s="2">
+        <v>29742.762060000005</v>
+      </c>
+      <c r="R352" s="2">
+        <v>29574.891225000003</v>
+      </c>
+      <c r="S352" s="2">
+        <v>29064.723711999995</v>
+      </c>
+      <c r="T352" s="2">
+        <v>28209.473368999999</v>
+      </c>
+      <c r="U352" s="2">
         <v>28151</v>
       </c>
-      <c r="V352">
-        <v>27987</v>
-      </c>
-      <c r="W352">
-        <v>28803</v>
-      </c>
-      <c r="X352">
-        <v>31146</v>
-      </c>
-      <c r="Y352">
-        <v>31829</v>
-      </c>
-      <c r="Z352">
-        <v>31078</v>
-      </c>
-      <c r="AA352">
-        <v>30379</v>
-      </c>
-      <c r="AB352">
-        <v>28945</v>
-      </c>
-      <c r="AC352">
-        <v>27208</v>
+      <c r="V352" s="2">
+        <v>27987.423679999996</v>
+      </c>
+      <c r="W352" s="2">
+        <v>28802.564548999999</v>
+      </c>
+      <c r="X352" s="2">
+        <v>31146.098541999996</v>
+      </c>
+      <c r="Y352" s="2">
+        <v>31828.664561000001</v>
+      </c>
+      <c r="Z352" s="2">
+        <v>31077.97134</v>
+      </c>
+      <c r="AA352" s="2">
+        <v>30379.398601000004</v>
+      </c>
+      <c r="AB352" s="2">
+        <v>28945.146064999997</v>
+      </c>
+      <c r="AC352" s="2">
+        <v>27208.042120000002</v>
       </c>
     </row>
     <row r="353" spans="1:29" x14ac:dyDescent="0.2">
@@ -32595,77 +32620,77 @@
       <c r="E353">
         <v>1</v>
       </c>
-      <c r="F353">
-        <v>25287</v>
-      </c>
-      <c r="G353">
-        <v>23931</v>
-      </c>
-      <c r="H353">
-        <v>23231</v>
-      </c>
-      <c r="I353">
-        <v>22876</v>
-      </c>
-      <c r="J353">
-        <v>23193</v>
-      </c>
-      <c r="K353">
-        <v>23413</v>
-      </c>
-      <c r="L353">
-        <v>23719</v>
-      </c>
-      <c r="M353">
-        <v>24868</v>
-      </c>
-      <c r="N353">
-        <v>26868</v>
-      </c>
-      <c r="O353">
-        <v>27901</v>
-      </c>
-      <c r="P353">
-        <v>28653</v>
-      </c>
-      <c r="Q353">
-        <v>28946</v>
-      </c>
-      <c r="R353">
-        <v>28551</v>
-      </c>
-      <c r="S353">
-        <v>28187</v>
-      </c>
-      <c r="T353">
-        <v>27956</v>
-      </c>
-      <c r="U353">
-        <v>27834</v>
-      </c>
-      <c r="V353">
-        <v>27918</v>
-      </c>
-      <c r="W353">
-        <v>28417</v>
-      </c>
-      <c r="X353">
-        <v>30727</v>
-      </c>
-      <c r="Y353">
-        <v>31485</v>
-      </c>
-      <c r="Z353">
-        <v>30832</v>
-      </c>
-      <c r="AA353">
-        <v>30134</v>
-      </c>
-      <c r="AB353">
-        <v>28974</v>
-      </c>
-      <c r="AC353">
-        <v>27324</v>
+      <c r="F353" s="2">
+        <v>25284.713744000004</v>
+      </c>
+      <c r="G353" s="2">
+        <v>23928.590192000003</v>
+      </c>
+      <c r="H353" s="2">
+        <v>23228.582653999994</v>
+      </c>
+      <c r="I353" s="2">
+        <v>22873.378696</v>
+      </c>
+      <c r="J353" s="2">
+        <v>23190.366878000001</v>
+      </c>
+      <c r="K353" s="2">
+        <v>23410.496911999995</v>
+      </c>
+      <c r="L353" s="2">
+        <v>23716.558063</v>
+      </c>
+      <c r="M353" s="2">
+        <v>24865.212271</v>
+      </c>
+      <c r="N353" s="2">
+        <v>26865.7</v>
+      </c>
+      <c r="O353" s="2">
+        <v>27898.9</v>
+      </c>
+      <c r="P353" s="2">
+        <v>28651.145991999994</v>
+      </c>
+      <c r="Q353" s="2">
+        <v>28943.231420000004</v>
+      </c>
+      <c r="R353" s="2">
+        <v>28548.453933999997</v>
+      </c>
+      <c r="S353" s="2">
+        <v>28184.6</v>
+      </c>
+      <c r="T353" s="2">
+        <v>27953.936218000003</v>
+      </c>
+      <c r="U353" s="2">
+        <v>27831.482901999992</v>
+      </c>
+      <c r="V353" s="2">
+        <v>27916.034876000002</v>
+      </c>
+      <c r="W353" s="2">
+        <v>28415.100904000003</v>
+      </c>
+      <c r="X353" s="2">
+        <v>30724.728777999993</v>
+      </c>
+      <c r="Y353" s="2">
+        <v>31483.156958</v>
+      </c>
+      <c r="Z353" s="2">
+        <v>30830.021269999994</v>
+      </c>
+      <c r="AA353" s="2">
+        <v>30131.406280000003</v>
+      </c>
+      <c r="AB353" s="2">
+        <v>28972.175943999999</v>
+      </c>
+      <c r="AC353" s="2">
+        <v>27321.533997999995</v>
       </c>
     </row>
     <row r="354" spans="1:29" x14ac:dyDescent="0.2">
@@ -32684,77 +32709,77 @@
       <c r="E354">
         <v>1</v>
       </c>
-      <c r="F354">
-        <v>25222</v>
-      </c>
-      <c r="G354">
-        <v>24278</v>
-      </c>
-      <c r="H354">
-        <v>23621</v>
-      </c>
-      <c r="I354">
-        <v>23353</v>
-      </c>
-      <c r="J354">
-        <v>23098</v>
-      </c>
-      <c r="K354">
-        <v>23571</v>
-      </c>
-      <c r="L354">
-        <v>23891</v>
-      </c>
-      <c r="M354">
-        <v>25074</v>
-      </c>
-      <c r="N354">
-        <v>27305</v>
-      </c>
-      <c r="O354">
-        <v>28143</v>
-      </c>
-      <c r="P354">
-        <v>28919</v>
-      </c>
-      <c r="Q354">
-        <v>29304</v>
-      </c>
-      <c r="R354">
-        <v>28846</v>
-      </c>
-      <c r="S354">
-        <v>28175</v>
-      </c>
-      <c r="T354">
-        <v>28026</v>
-      </c>
-      <c r="U354">
-        <v>27771</v>
-      </c>
-      <c r="V354">
-        <v>27898</v>
-      </c>
-      <c r="W354">
-        <v>28467</v>
-      </c>
-      <c r="X354">
-        <v>30917</v>
-      </c>
-      <c r="Y354">
-        <v>31738</v>
-      </c>
-      <c r="Z354">
-        <v>30967</v>
-      </c>
-      <c r="AA354">
-        <v>30501</v>
-      </c>
-      <c r="AB354">
-        <v>29255</v>
-      </c>
-      <c r="AC354">
-        <v>27784</v>
+      <c r="F354" s="2">
+        <v>25220.149181999997</v>
+      </c>
+      <c r="G354" s="2">
+        <v>24275.776184000002</v>
+      </c>
+      <c r="H354" s="2">
+        <v>23618.208767999997</v>
+      </c>
+      <c r="I354" s="2">
+        <v>23350.319266999999</v>
+      </c>
+      <c r="J354" s="2">
+        <v>23095.389095999999</v>
+      </c>
+      <c r="K354" s="2">
+        <v>23568.682227999998</v>
+      </c>
+      <c r="L354" s="2">
+        <v>23888.6675</v>
+      </c>
+      <c r="M354" s="2">
+        <v>25072.006752000001</v>
+      </c>
+      <c r="N354" s="2">
+        <v>27302.423093999994</v>
+      </c>
+      <c r="O354" s="2">
+        <v>28140.467415999996</v>
+      </c>
+      <c r="P354" s="2">
+        <v>28917.044782000001</v>
+      </c>
+      <c r="Q354" s="2">
+        <v>29301.300314</v>
+      </c>
+      <c r="R354" s="2">
+        <v>28843.601665999999</v>
+      </c>
+      <c r="S354" s="2">
+        <v>28173.024426000004</v>
+      </c>
+      <c r="T354" s="2">
+        <v>28024.100416000001</v>
+      </c>
+      <c r="U354" s="2">
+        <v>27768.336796000003</v>
+      </c>
+      <c r="V354" s="2">
+        <v>27898.400000000001</v>
+      </c>
+      <c r="W354" s="2">
+        <v>28467.208184000003</v>
+      </c>
+      <c r="X354" s="2">
+        <v>30916.832631999998</v>
+      </c>
+      <c r="Y354" s="2">
+        <v>31738.061040000004</v>
+      </c>
+      <c r="Z354" s="2">
+        <v>30906.740226999998</v>
+      </c>
+      <c r="AA354" s="2">
+        <v>30500.950868</v>
+      </c>
+      <c r="AB354" s="2">
+        <v>29254.729707999995</v>
+      </c>
+      <c r="AC354" s="2">
+        <v>27783.705379999999</v>
       </c>
     </row>
     <row r="355" spans="1:29" x14ac:dyDescent="0.2">
@@ -32773,77 +32798,77 @@
       <c r="E355">
         <v>1</v>
       </c>
-      <c r="F355">
-        <v>25978</v>
-      </c>
-      <c r="G355">
-        <v>25018</v>
-      </c>
-      <c r="H355">
-        <v>24374</v>
-      </c>
-      <c r="I355">
-        <v>23933</v>
-      </c>
-      <c r="J355">
-        <v>23882</v>
-      </c>
-      <c r="K355">
-        <v>24098</v>
-      </c>
-      <c r="L355">
-        <v>24619</v>
-      </c>
-      <c r="M355">
-        <v>25873</v>
-      </c>
-      <c r="N355">
-        <v>27920</v>
-      </c>
-      <c r="O355">
-        <v>28782</v>
-      </c>
-      <c r="P355">
-        <v>29321</v>
-      </c>
-      <c r="Q355">
-        <v>29766</v>
-      </c>
-      <c r="R355">
-        <v>29055</v>
-      </c>
-      <c r="S355">
-        <v>28475</v>
-      </c>
-      <c r="T355">
-        <v>28224</v>
-      </c>
-      <c r="U355">
-        <v>27861</v>
-      </c>
-      <c r="V355">
-        <v>28022</v>
-      </c>
-      <c r="W355">
-        <v>28441</v>
-      </c>
-      <c r="X355">
-        <v>30825</v>
-      </c>
-      <c r="Y355">
-        <v>31800</v>
-      </c>
-      <c r="Z355">
-        <v>31616</v>
-      </c>
-      <c r="AA355">
-        <v>31062</v>
-      </c>
-      <c r="AB355">
-        <v>29667</v>
-      </c>
-      <c r="AC355">
-        <v>27707</v>
+      <c r="F355" s="2">
+        <v>25977.892918999998</v>
+      </c>
+      <c r="G355" s="2">
+        <v>25017.955629999997</v>
+      </c>
+      <c r="H355" s="2">
+        <v>24373.535674000002</v>
+      </c>
+      <c r="I355" s="2">
+        <v>23933.226052999995</v>
+      </c>
+      <c r="J355" s="2">
+        <v>23882.320747999998</v>
+      </c>
+      <c r="K355" s="2">
+        <v>24097.603951000001</v>
+      </c>
+      <c r="L355" s="2">
+        <v>24618.619739999998</v>
+      </c>
+      <c r="M355" s="2">
+        <v>25872.5</v>
+      </c>
+      <c r="N355" s="2">
+        <v>27920.1</v>
+      </c>
+      <c r="O355" s="2">
+        <v>28782.171424999997</v>
+      </c>
+      <c r="P355" s="2">
+        <v>29321.046110999996</v>
+      </c>
+      <c r="Q355" s="2">
+        <v>29766.307365999997</v>
+      </c>
+      <c r="R355" s="2">
+        <v>29055.333299999995</v>
+      </c>
+      <c r="S355" s="2">
+        <v>28474.9</v>
+      </c>
+      <c r="T355" s="2">
+        <v>28223.506352</v>
+      </c>
+      <c r="U355" s="2">
+        <v>27861.052709999996</v>
+      </c>
+      <c r="V355" s="2">
+        <v>28021.599999999999</v>
+      </c>
+      <c r="W355" s="2">
+        <v>28440.86204</v>
+      </c>
+      <c r="X355" s="2">
+        <v>30825.326063999997</v>
+      </c>
+      <c r="Y355" s="2">
+        <v>31800.27103</v>
+      </c>
+      <c r="Z355" s="2">
+        <v>31616.2</v>
+      </c>
+      <c r="AA355" s="2">
+        <v>31062.184221999996</v>
+      </c>
+      <c r="AB355" s="2">
+        <v>29666.609161999997</v>
+      </c>
+      <c r="AC355" s="2">
+        <v>27706.563072000001</v>
       </c>
     </row>
     <row r="356" spans="1:29" x14ac:dyDescent="0.2">
@@ -32862,77 +32887,77 @@
       <c r="E356">
         <v>1</v>
       </c>
-      <c r="F356">
-        <v>25928.098555999997</v>
-      </c>
-      <c r="G356">
+      <c r="F356" s="2">
+        <v>25928.098556000001</v>
+      </c>
+      <c r="G356" s="2">
         <v>24254.433852000002</v>
       </c>
-      <c r="H356">
-        <v>23708.199999999997</v>
-      </c>
-      <c r="I356">
-        <v>23413.322724000001</v>
-      </c>
-      <c r="J356">
-        <v>23255.19613</v>
-      </c>
-      <c r="K356">
-        <v>23748.905768000001</v>
-      </c>
-      <c r="L356">
-        <v>23784.115431999999</v>
-      </c>
-      <c r="M356">
-        <v>25519.399999999998</v>
-      </c>
-      <c r="N356">
+      <c r="H356" s="2">
+        <v>23708.2</v>
+      </c>
+      <c r="I356" s="2">
+        <v>23413.322723999998</v>
+      </c>
+      <c r="J356" s="2">
+        <v>23255.196130000004</v>
+      </c>
+      <c r="K356" s="2">
+        <v>23748.905767999997</v>
+      </c>
+      <c r="L356" s="2">
+        <v>23784.115431999995</v>
+      </c>
+      <c r="M356" s="2">
+        <v>25519.4</v>
+      </c>
+      <c r="N356" s="2">
         <v>27195.726777999997</v>
       </c>
-      <c r="O356">
-        <v>28825.329665000001</v>
-      </c>
-      <c r="P356">
+      <c r="O356" s="2">
+        <v>28825.329664999997</v>
+      </c>
+      <c r="P356" s="2">
         <v>29480.825219999999</v>
       </c>
-      <c r="Q356">
+      <c r="Q356" s="2">
         <v>29813.287465000001</v>
       </c>
-      <c r="R356">
-        <v>29269.468227999998</v>
-      </c>
-      <c r="S356">
+      <c r="R356" s="2">
+        <v>29269.468228000002</v>
+      </c>
+      <c r="S356" s="2">
         <v>28414.401261000003</v>
       </c>
-      <c r="T356">
+      <c r="T356" s="2">
         <v>28305.456851000003</v>
       </c>
-      <c r="U356">
+      <c r="U356" s="2">
         <v>27730.613908000003</v>
       </c>
-      <c r="V356">
+      <c r="V356" s="2">
         <v>27639.7</v>
       </c>
-      <c r="W356">
-        <v>28006.576073</v>
-      </c>
-      <c r="X356">
-        <v>30773.897303999998</v>
-      </c>
-      <c r="Y356">
-        <v>31615.419346000002</v>
-      </c>
-      <c r="Z356">
-        <v>31183.062943999998</v>
-      </c>
-      <c r="AA356">
-        <v>30381.600000000002</v>
-      </c>
-      <c r="AB356">
+      <c r="W356" s="2">
+        <v>28006.576072999997</v>
+      </c>
+      <c r="X356" s="2">
+        <v>30773.897304000002</v>
+      </c>
+      <c r="Y356" s="2">
+        <v>31615.419345999995</v>
+      </c>
+      <c r="Z356" s="2">
+        <v>31183.062943999994</v>
+      </c>
+      <c r="AA356" s="2">
+        <v>30493.599999999999</v>
+      </c>
+      <c r="AB356" s="2">
         <v>28857.580245999998</v>
       </c>
-      <c r="AC356">
-        <v>27144.849063000001</v>
+      <c r="AC356" s="2">
+        <v>27144.849063000005</v>
       </c>
     </row>
     <row r="357" spans="1:29" x14ac:dyDescent="0.2">
@@ -32951,76 +32976,76 @@
       <c r="E357">
         <v>1</v>
       </c>
-      <c r="F357">
+      <c r="F357" s="2">
         <v>25141.674294</v>
       </c>
-      <c r="G357">
-        <v>23987.742515000002</v>
-      </c>
-      <c r="H357">
+      <c r="G357" s="2">
+        <v>23987.742514999998</v>
+      </c>
+      <c r="H357" s="2">
         <v>23415.052230000001</v>
       </c>
-      <c r="I357">
-        <v>23044.490813</v>
-      </c>
-      <c r="J357">
-        <v>23090.77029</v>
-      </c>
-      <c r="K357">
-        <v>23155.684574999999</v>
-      </c>
-      <c r="L357">
+      <c r="I357" s="2">
+        <v>23044.490812999997</v>
+      </c>
+      <c r="J357" s="2">
+        <v>23090.770289999997</v>
+      </c>
+      <c r="K357" s="2">
+        <v>23155.684575000003</v>
+      </c>
+      <c r="L357" s="2">
         <v>22620.559728</v>
       </c>
-      <c r="M357">
+      <c r="M357" s="2">
         <v>22899.7</v>
       </c>
-      <c r="N357">
-        <v>24194.152277999998</v>
-      </c>
-      <c r="O357">
-        <v>25691.467945999997</v>
-      </c>
-      <c r="P357">
+      <c r="N357" s="2">
+        <v>24194.152278000001</v>
+      </c>
+      <c r="O357" s="2">
+        <v>25691.467945999993</v>
+      </c>
+      <c r="P357" s="2">
         <v>26847.360594999998</v>
       </c>
-      <c r="Q357">
+      <c r="Q357" s="2">
         <v>27209.678788000001</v>
       </c>
-      <c r="R357">
+      <c r="R357" s="2">
         <v>27798.874371999998</v>
       </c>
-      <c r="S357">
-        <v>27118.510875999997</v>
-      </c>
-      <c r="T357">
-        <v>26709.771065999998</v>
-      </c>
-      <c r="U357">
+      <c r="S357" s="2">
+        <v>27118.510875999993</v>
+      </c>
+      <c r="T357" s="2">
+        <v>26709.771066000001</v>
+      </c>
+      <c r="U357" s="2">
         <v>26471.5</v>
       </c>
-      <c r="V357">
+      <c r="V357" s="2">
         <v>26741.055103000002</v>
       </c>
-      <c r="W357">
+      <c r="W357" s="2">
         <v>27821.200000000001</v>
       </c>
-      <c r="X357">
+      <c r="X357" s="2">
         <v>30292.781024</v>
       </c>
-      <c r="Y357">
+      <c r="Y357" s="2">
         <v>31175.728045</v>
       </c>
-      <c r="Z357">
-        <v>30715.033987000003</v>
-      </c>
-      <c r="AA357">
-        <v>30088.878008</v>
-      </c>
-      <c r="AB357">
-        <v>28933.231640000002</v>
-      </c>
-      <c r="AC357">
+      <c r="Z357" s="2">
+        <v>30715.033986999999</v>
+      </c>
+      <c r="AA357" s="2">
+        <v>30088.878007999992</v>
+      </c>
+      <c r="AB357" s="2">
+        <v>28933.231640000005</v>
+      </c>
+      <c r="AC357" s="2">
         <v>27634.899010000001</v>
       </c>
     </row>
@@ -33040,77 +33065,77 @@
       <c r="E358">
         <v>6</v>
       </c>
-      <c r="F358">
+      <c r="F358" s="2">
         <v>25148.963124999998</v>
       </c>
-      <c r="G358">
-        <v>23749.507573000003</v>
-      </c>
-      <c r="H358">
+      <c r="G358" s="2">
+        <v>23749.507572999999</v>
+      </c>
+      <c r="H358" s="2">
         <v>23143.490768</v>
       </c>
-      <c r="I358">
+      <c r="I358" s="2">
         <v>22862.1</v>
       </c>
-      <c r="J358">
-        <v>22577.946980000001</v>
-      </c>
-      <c r="K358">
+      <c r="J358" s="2">
+        <v>22577.946979999997</v>
+      </c>
+      <c r="K358" s="2">
         <v>23285.505724000002</v>
       </c>
-      <c r="L358">
-        <v>23367.211202999999</v>
-      </c>
-      <c r="M358">
-        <v>24645.813114</v>
-      </c>
-      <c r="N358">
+      <c r="L358" s="2">
+        <v>23367.211202999995</v>
+      </c>
+      <c r="M358" s="2">
+        <v>24645.813114000004</v>
+      </c>
+      <c r="N358" s="2">
         <v>26899.480728999999</v>
       </c>
-      <c r="O358">
+      <c r="O358" s="2">
         <v>28452.799999999999</v>
       </c>
-      <c r="P358">
-        <v>28884.26151</v>
-      </c>
-      <c r="Q358">
-        <v>28974.956923999998</v>
-      </c>
-      <c r="R358">
-        <v>28647.439760000001</v>
-      </c>
-      <c r="S358">
-        <v>27867.046590000002</v>
-      </c>
-      <c r="T358">
-        <v>27866.047610000001</v>
-      </c>
-      <c r="U358">
-        <v>27959.389518</v>
-      </c>
-      <c r="V358">
-        <v>27647.090367999997</v>
-      </c>
-      <c r="W358">
-        <v>28128.860236</v>
-      </c>
-      <c r="X358">
-        <v>30457.229033</v>
-      </c>
-      <c r="Y358">
-        <v>31158.700954000004</v>
-      </c>
-      <c r="Z358">
-        <v>30730.781056</v>
-      </c>
-      <c r="AA358">
-        <v>29702.344075000001</v>
-      </c>
-      <c r="AB358">
-        <v>28931.037641999999</v>
-      </c>
-      <c r="AC358">
-        <v>27464.485965</v>
+      <c r="P358" s="2">
+        <v>28884.261510000004</v>
+      </c>
+      <c r="Q358" s="2">
+        <v>28972.259677999995</v>
+      </c>
+      <c r="R358" s="2">
+        <v>28937.846120000002</v>
+      </c>
+      <c r="S358" s="2">
+        <v>28156.650891999998</v>
+      </c>
+      <c r="T358" s="2">
+        <v>28157.649871999995</v>
+      </c>
+      <c r="U358" s="2">
+        <v>27956.086152000007</v>
+      </c>
+      <c r="V358" s="2">
+        <v>27643.896895999998</v>
+      </c>
+      <c r="W358" s="2">
+        <v>28125.563601999995</v>
+      </c>
+      <c r="X358" s="2">
+        <v>30454.033928999997</v>
+      </c>
+      <c r="Y358" s="2">
+        <v>31155.502586000006</v>
+      </c>
+      <c r="Z358" s="2">
+        <v>30728.385952000001</v>
+      </c>
+      <c r="AA358" s="2">
+        <v>29873.856559</v>
+      </c>
+      <c r="AB358" s="2">
+        <v>28928.738815000004</v>
+      </c>
+      <c r="AC358" s="2">
+        <v>27462.187138000005</v>
       </c>
     </row>
     <row r="359" spans="1:29" x14ac:dyDescent="0.2">
@@ -33129,76 +33154,76 @@
       <c r="E359">
         <v>5</v>
       </c>
-      <c r="F359">
-        <v>25502.003639999999</v>
-      </c>
-      <c r="G359">
-        <v>24489.093165000002</v>
-      </c>
-      <c r="H359">
-        <v>23682.699999999997</v>
-      </c>
-      <c r="I359">
-        <v>23363.844545999997</v>
-      </c>
-      <c r="J359">
+      <c r="F359" s="1">
+        <v>25502.003640000003</v>
+      </c>
+      <c r="G359" s="1">
+        <v>24489.093165000006</v>
+      </c>
+      <c r="H359" s="1">
+        <v>23682.7</v>
+      </c>
+      <c r="I359" s="1">
+        <v>23363.844545999993</v>
+      </c>
+      <c r="J359" s="1">
         <v>23216.567082999998</v>
       </c>
-      <c r="K359">
+      <c r="K359" s="1">
         <v>23401.8</v>
       </c>
-      <c r="L359">
-        <v>22846.842164999998</v>
-      </c>
-      <c r="M359">
-        <v>23058.394068000001</v>
-      </c>
-      <c r="N359">
+      <c r="L359" s="1">
+        <v>22846.842165000002</v>
+      </c>
+      <c r="M359" s="1">
+        <v>23058.394068000005</v>
+      </c>
+      <c r="N359" s="1">
         <v>24494.102348000004</v>
       </c>
-      <c r="O359">
+      <c r="O359" s="1">
         <v>25890</v>
       </c>
-      <c r="P359">
-        <v>26784.532917999997</v>
-      </c>
-      <c r="Q359">
-        <v>27247.296788</v>
-      </c>
-      <c r="R359">
-        <v>27125.159110000001</v>
-      </c>
-      <c r="S359">
-        <v>26435.517094999999</v>
-      </c>
-      <c r="T359">
+      <c r="P359" s="1">
+        <v>26784.532918000001</v>
+      </c>
+      <c r="Q359" s="1">
+        <v>27247.296788000003</v>
+      </c>
+      <c r="R359" s="1">
+        <v>27125.159110000004</v>
+      </c>
+      <c r="S359" s="1">
+        <v>26435.517095000003</v>
+      </c>
+      <c r="T359" s="1">
         <v>26273.200000000001</v>
       </c>
-      <c r="U359">
+      <c r="U359" s="1">
         <v>25998.361553999999</v>
       </c>
-      <c r="V359">
-        <v>26221.819002</v>
-      </c>
-      <c r="W359">
-        <v>26689.249169999999</v>
-      </c>
-      <c r="X359">
-        <v>29353.728626</v>
-      </c>
-      <c r="Y359">
+      <c r="V359" s="1">
+        <v>26221.819002000004</v>
+      </c>
+      <c r="W359" s="1">
+        <v>26689.249169999996</v>
+      </c>
+      <c r="X359" s="1">
+        <v>29353.728625999996</v>
+      </c>
+      <c r="Y359" s="1">
         <v>30595.417281000002</v>
       </c>
-      <c r="Z359">
-        <v>30379.898345999998</v>
-      </c>
-      <c r="AA359">
+      <c r="Z359" s="1">
+        <v>30379.898346000002</v>
+      </c>
+      <c r="AA359" s="1">
         <v>29768.348432000003</v>
       </c>
-      <c r="AB359">
-        <v>28829.663718</v>
-      </c>
-      <c r="AC359">
+      <c r="AB359" s="1">
+        <v>28829.663717999993</v>
+      </c>
+      <c r="AC359" s="1">
         <v>27009.587808</v>
       </c>
     </row>
@@ -33218,6 +33243,78 @@
       <c r="E360">
         <v>1</v>
       </c>
+      <c r="F360" s="2">
+        <v>25421.743345999992</v>
+      </c>
+      <c r="G360" s="2">
+        <v>24331.156879999995</v>
+      </c>
+      <c r="H360" s="2">
+        <v>23586.964510000002</v>
+      </c>
+      <c r="I360" s="2">
+        <v>23198.991335000002</v>
+      </c>
+      <c r="J360" s="2">
+        <v>23011.004809999995</v>
+      </c>
+      <c r="K360" s="2">
+        <v>23401.259268000002</v>
+      </c>
+      <c r="L360" s="2">
+        <v>23597.605865999998</v>
+      </c>
+      <c r="M360" s="2">
+        <v>25025.200000000001</v>
+      </c>
+      <c r="N360" s="2">
+        <v>26841.893313999997</v>
+      </c>
+      <c r="O360" s="2">
+        <v>28000.612401000002</v>
+      </c>
+      <c r="P360" s="2">
+        <v>28501.326149999997</v>
+      </c>
+      <c r="Q360" s="2">
+        <v>28899.592317999999</v>
+      </c>
+      <c r="R360" s="2">
+        <v>28458.545185000003</v>
+      </c>
+      <c r="S360" s="2">
+        <v>27812.577183999998</v>
+      </c>
+      <c r="T360" s="2">
+        <v>27841.077495999994</v>
+      </c>
+      <c r="U360" s="2">
+        <v>27860.2</v>
+      </c>
+      <c r="V360" s="2">
+        <v>27473.681273000002</v>
+      </c>
+      <c r="W360" s="2">
+        <v>28357.599999999999</v>
+      </c>
+      <c r="X360" s="2">
+        <v>30491.975789</v>
+      </c>
+      <c r="Y360" s="2">
+        <v>31257.105160000003</v>
+      </c>
+      <c r="Z360" s="2">
+        <v>30964.9</v>
+      </c>
+      <c r="AA360" s="2">
+        <v>30188.389795999999</v>
+      </c>
+      <c r="AB360" s="2">
+        <v>28984.305821999998</v>
+      </c>
+      <c r="AC360" s="2">
+        <v>27167.669770999997</v>
+      </c>
     </row>
     <row r="361" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A361">
@@ -33235,6 +33332,78 @@
       <c r="E361">
         <v>1</v>
       </c>
+      <c r="F361" s="2">
+        <v>25670.472945000001</v>
+      </c>
+      <c r="G361" s="2">
+        <v>24100.734</v>
+      </c>
+      <c r="H361" s="2">
+        <v>23486.5</v>
+      </c>
+      <c r="I361" s="2">
+        <v>23193.200000000001</v>
+      </c>
+      <c r="J361" s="2">
+        <v>22832.287288</v>
+      </c>
+      <c r="K361" s="2">
+        <v>22954.236927999995</v>
+      </c>
+      <c r="L361" s="2">
+        <v>22961.4</v>
+      </c>
+      <c r="M361" s="2">
+        <v>24160.9</v>
+      </c>
+      <c r="N361" s="2">
+        <v>26506.376789000002</v>
+      </c>
+      <c r="O361" s="2">
+        <v>27806.811290000001</v>
+      </c>
+      <c r="P361" s="2">
+        <v>28579.916805000004</v>
+      </c>
+      <c r="Q361" s="2">
+        <v>28828.000665000003</v>
+      </c>
+      <c r="R361" s="2">
+        <v>28440.219785999998</v>
+      </c>
+      <c r="S361" s="2">
+        <v>27815.399323999998</v>
+      </c>
+      <c r="T361" s="2">
+        <v>28035.474617999997</v>
+      </c>
+      <c r="U361" s="2">
+        <v>27703.348925999999</v>
+      </c>
+      <c r="V361" s="2">
+        <v>27541.796479999997</v>
+      </c>
+      <c r="W361" s="2">
+        <v>28082.370683000005</v>
+      </c>
+      <c r="X361" s="2">
+        <v>30169.795387999999</v>
+      </c>
+      <c r="Y361" s="2">
+        <v>30671.602028000001</v>
+      </c>
+      <c r="Z361" s="2">
+        <v>30050.816869999995</v>
+      </c>
+      <c r="AA361" s="2">
+        <v>29338.329817000002</v>
+      </c>
+      <c r="AB361" s="2">
+        <v>28572.820426000006</v>
+      </c>
+      <c r="AC361" s="2">
+        <v>26900.433541999999</v>
+      </c>
     </row>
     <row r="362" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A362">
@@ -33252,6 +33421,78 @@
       <c r="E362">
         <v>1</v>
       </c>
+      <c r="F362" s="2">
+        <v>25364.059617000003</v>
+      </c>
+      <c r="G362" s="2">
+        <v>24022.104748000002</v>
+      </c>
+      <c r="H362" s="2">
+        <v>23442.768115000003</v>
+      </c>
+      <c r="I362" s="2">
+        <v>23042.172985999994</v>
+      </c>
+      <c r="J362" s="2">
+        <v>22891.200000000001</v>
+      </c>
+      <c r="K362" s="2">
+        <v>23044.341389000005</v>
+      </c>
+      <c r="L362" s="2">
+        <v>23047.639706000005</v>
+      </c>
+      <c r="M362" s="2">
+        <v>23679.370322999999</v>
+      </c>
+      <c r="N362" s="2">
+        <v>25688.092388000005</v>
+      </c>
+      <c r="O362" s="2">
+        <v>27182.646821000002</v>
+      </c>
+      <c r="P362" s="2">
+        <v>27847.200000000001</v>
+      </c>
+      <c r="Q362" s="2">
+        <v>27997.265407999999</v>
+      </c>
+      <c r="R362" s="2">
+        <v>27829.054490000006</v>
+      </c>
+      <c r="S362" s="2">
+        <v>27192.661187999998</v>
+      </c>
+      <c r="T362" s="2">
+        <v>27182.030091000004</v>
+      </c>
+      <c r="U362" s="2">
+        <v>27076.3</v>
+      </c>
+      <c r="V362" s="2">
+        <v>26868.989823000004</v>
+      </c>
+      <c r="W362" s="2">
+        <v>27416.310547000001</v>
+      </c>
+      <c r="X362" s="2">
+        <v>29787.485741999993</v>
+      </c>
+      <c r="Y362" s="2">
+        <v>30409.051097999993</v>
+      </c>
+      <c r="Z362" s="2">
+        <v>30225.238777999995</v>
+      </c>
+      <c r="AA362" s="2">
+        <v>29507.883756999996</v>
+      </c>
+      <c r="AB362" s="2">
+        <v>28532.141183000003</v>
+      </c>
+      <c r="AC362" s="2">
+        <v>26880.254145999996</v>
+      </c>
     </row>
     <row r="363" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A363">
@@ -33269,6 +33510,78 @@
       <c r="E363">
         <v>1</v>
       </c>
+      <c r="F363" s="2">
+        <v>24980.353519</v>
+      </c>
+      <c r="G363" s="2">
+        <v>23779.366335000002</v>
+      </c>
+      <c r="H363" s="2">
+        <v>22929.499988</v>
+      </c>
+      <c r="I363" s="2">
+        <v>22512.713585999994</v>
+      </c>
+      <c r="J363" s="2">
+        <v>22477.271255</v>
+      </c>
+      <c r="K363" s="2">
+        <v>22492.423011000003</v>
+      </c>
+      <c r="L363" s="2">
+        <v>22285.245839999996</v>
+      </c>
+      <c r="M363" s="2">
+        <v>23062.032362000002</v>
+      </c>
+      <c r="N363" s="2">
+        <v>24513.970219999996</v>
+      </c>
+      <c r="O363" s="2">
+        <v>25722.6</v>
+      </c>
+      <c r="P363" s="2">
+        <v>26604.632538000002</v>
+      </c>
+      <c r="Q363" s="2">
+        <v>26585.262219999997</v>
+      </c>
+      <c r="R363" s="2">
+        <v>26460.198412999998</v>
+      </c>
+      <c r="S363" s="2">
+        <v>26303.678279</v>
+      </c>
+      <c r="T363" s="2">
+        <v>25697.023308</v>
+      </c>
+      <c r="U363" s="2">
+        <v>25424.640388</v>
+      </c>
+      <c r="V363" s="2">
+        <v>25318.848405999997</v>
+      </c>
+      <c r="W363" s="2">
+        <v>26031.510757999997</v>
+      </c>
+      <c r="X363" s="2">
+        <v>28132.975065999995</v>
+      </c>
+      <c r="Y363" s="2">
+        <v>29289.454755999999</v>
+      </c>
+      <c r="Z363" s="2">
+        <v>29053.834829999996</v>
+      </c>
+      <c r="AA363" s="2">
+        <v>28648.836904</v>
+      </c>
+      <c r="AB363" s="2">
+        <v>27677.023456000003</v>
+      </c>
+      <c r="AC363" s="2">
+        <v>26487.611853999999</v>
+      </c>
     </row>
     <row r="364" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A364">
@@ -33286,6 +33599,78 @@
       <c r="E364">
         <v>1</v>
       </c>
+      <c r="F364" s="2">
+        <v>24679.001715999995</v>
+      </c>
+      <c r="G364" s="2">
+        <v>23091.815383999998</v>
+      </c>
+      <c r="H364" s="2">
+        <v>21965.444920000002</v>
+      </c>
+      <c r="I364" s="2">
+        <v>21831.428352999996</v>
+      </c>
+      <c r="J364" s="2">
+        <v>21816.467924000004</v>
+      </c>
+      <c r="K364" s="2">
+        <v>21840.755531000003</v>
+      </c>
+      <c r="L364" s="2">
+        <v>21247.181175000002</v>
+      </c>
+      <c r="M364" s="2">
+        <v>21471.1</v>
+      </c>
+      <c r="N364" s="2">
+        <v>22333.596471999994</v>
+      </c>
+      <c r="O364" s="2">
+        <v>23617.685363999997</v>
+      </c>
+      <c r="P364" s="2">
+        <v>24069.417360999996</v>
+      </c>
+      <c r="Q364" s="2">
+        <v>24586.425127000002</v>
+      </c>
+      <c r="R364" s="2">
+        <v>24560.822381999998</v>
+      </c>
+      <c r="S364" s="2">
+        <v>24428.035345000004</v>
+      </c>
+      <c r="T364" s="2">
+        <v>24111.581075999999</v>
+      </c>
+      <c r="U364" s="2">
+        <v>23867.5</v>
+      </c>
+      <c r="V364" s="2">
+        <v>23824.043538000002</v>
+      </c>
+      <c r="W364" s="2">
+        <v>24304.3</v>
+      </c>
+      <c r="X364" s="2">
+        <v>26678.319623999996</v>
+      </c>
+      <c r="Y364" s="2">
+        <v>28382.2</v>
+      </c>
+      <c r="Z364" s="2">
+        <v>27999.119715000004</v>
+      </c>
+      <c r="AA364" s="2">
+        <v>27820.5</v>
+      </c>
+      <c r="AB364" s="2">
+        <v>26987.184337999999</v>
+      </c>
+      <c r="AC364" s="2">
+        <v>25878.744847999995</v>
+      </c>
     </row>
     <row r="365" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A365">
@@ -33302,6 +33687,78 @@
       </c>
       <c r="E365">
         <v>2</v>
+      </c>
+      <c r="F365" s="1">
+        <v>24178.375287999999</v>
+      </c>
+      <c r="G365" s="1">
+        <v>22471.056119999997</v>
+      </c>
+      <c r="H365" s="1">
+        <v>21807.31422</v>
+      </c>
+      <c r="I365" s="1">
+        <v>21329.022183999998</v>
+      </c>
+      <c r="J365" s="1">
+        <v>21331.673607999997</v>
+      </c>
+      <c r="K365" s="1">
+        <v>20893.966393999995</v>
+      </c>
+      <c r="L365" s="1">
+        <v>20339.532493999995</v>
+      </c>
+      <c r="M365" s="1">
+        <v>20570.324516999997</v>
+      </c>
+      <c r="N365" s="1">
+        <v>21602.779951999997</v>
+      </c>
+      <c r="O365" s="1">
+        <v>22682.262056999996</v>
+      </c>
+      <c r="P365" s="1">
+        <v>23495.809803999997</v>
+      </c>
+      <c r="Q365" s="1">
+        <v>23805.322045999997</v>
+      </c>
+      <c r="R365" s="1">
+        <v>23684.716921999996</v>
+      </c>
+      <c r="S365" s="1">
+        <v>23576.017639999998</v>
+      </c>
+      <c r="T365" s="1">
+        <v>23135.748063999999</v>
+      </c>
+      <c r="U365" s="1">
+        <v>23143.7</v>
+      </c>
+      <c r="V365" s="1">
+        <v>22974.776885000003</v>
+      </c>
+      <c r="W365" s="1">
+        <v>23727.394802999999</v>
+      </c>
+      <c r="X365" s="1">
+        <v>26673.489579000001</v>
+      </c>
+      <c r="Y365" s="1">
+        <v>28182.115291000002</v>
+      </c>
+      <c r="Z365" s="1">
+        <v>27805.709217999996</v>
+      </c>
+      <c r="AA365" s="1">
+        <v>27508.5</v>
+      </c>
+      <c r="AB365" s="1">
+        <v>27019.612966000004</v>
+      </c>
+      <c r="AC365" s="1">
+        <v>25757.547192000002</v>
       </c>
     </row>
   </sheetData>
